--- a/trash/Separadores.xlsx
+++ b/trash/Separadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\palnt-backend\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D9EE8E-2785-42F8-A0DC-70A412EE5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C44776-4C0B-45C2-B85A-F8463CFB60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,21 +52,48 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>WW_Lead</author>
+  </authors>
+  <commentList>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{C1D43997-DBBE-4D7C-A8F1-3C0AA4CF4254}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>WW_Lead:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Остаток на будущее</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="218">
   <si>
     <t>Separadores</t>
   </si>
@@ -506,55 +533,10 @@
     <t>Заказ</t>
   </si>
   <si>
-    <t>Ширина</t>
-  </si>
-  <si>
-    <t>Длина</t>
-  </si>
-  <si>
-    <t>Колл-во</t>
-  </si>
-  <si>
-    <t>Разделителей из полоски</t>
-  </si>
-  <si>
-    <t>Площадь</t>
-  </si>
-  <si>
-    <t>часть</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>стоимость картона</t>
-  </si>
-  <si>
-    <t>стоимость произв</t>
-  </si>
-  <si>
-    <t>желательная стоимость</t>
-  </si>
-  <si>
     <t>Ножи:</t>
   </si>
   <si>
-    <t>листы</t>
-  </si>
-  <si>
     <t>полоски</t>
-  </si>
-  <si>
-    <t>сохранить</t>
-  </si>
-  <si>
-    <t>выходят</t>
-  </si>
-  <si>
-    <t>необходимые</t>
-  </si>
-  <si>
-    <t>Лист:</t>
   </si>
   <si>
     <t>ширина</t>
@@ -571,6 +553,201 @@
   <si>
     <t>стоим всех листов</t>
   </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Ширина:</t>
+  </si>
+  <si>
+    <t>ширина листа на ширину разделителя</t>
+  </si>
+  <si>
+    <t>длина листа на ширину разделителя</t>
+  </si>
+  <si>
+    <t>ширина листа на длину разделителя</t>
+  </si>
+  <si>
+    <t>длина листа на длину разделителя</t>
+  </si>
+  <si>
+    <t>Параметры заказа:</t>
+  </si>
+  <si>
+    <t>Расчет заказа:</t>
+  </si>
+  <si>
+    <t>Разделителей в полоске:</t>
+  </si>
+  <si>
+    <t>Параметры используемых листов:</t>
+  </si>
+  <si>
+    <t>Расстановка ножей (в ручную):</t>
+  </si>
+  <si>
+    <t>Разделитель</t>
+  </si>
+  <si>
+    <t>см</t>
+  </si>
+  <si>
+    <t>в длину</t>
+  </si>
+  <si>
+    <t>полосок</t>
+  </si>
+  <si>
+    <t>разделителей в листе</t>
+  </si>
+  <si>
+    <t>всего надо разделителей</t>
+  </si>
+  <si>
+    <t>требуется листов</t>
+  </si>
+  <si>
+    <t>% от заказа</t>
+  </si>
+  <si>
+    <t>Обрезки, см2:</t>
+  </si>
+  <si>
+    <t>Общая площадь заказа, см2</t>
+  </si>
+  <si>
+    <t>Полосок из листа (Длина листа на длину разделителей), шт</t>
+  </si>
+  <si>
+    <t>Колл-во разделителей в заказе, шт</t>
+  </si>
+  <si>
+    <t>Ширина разделителя в заказе, см</t>
+  </si>
+  <si>
+    <t>Длина разделителя в заказе, см</t>
+  </si>
+  <si>
+    <t>Стоимость материала, всего, $</t>
+  </si>
+  <si>
+    <t>стоимость за ед. разделителя, $</t>
+  </si>
+  <si>
+    <t>стоимость произв + разделителя, $</t>
+  </si>
+  <si>
+    <t>стоимость произв + разделителя + маржа, $</t>
+  </si>
+  <si>
+    <t>Эффективная длина полоски, см</t>
+  </si>
+  <si>
+    <t>ширина 1, см</t>
+  </si>
+  <si>
+    <t>ширина 2, см</t>
+  </si>
+  <si>
+    <t>ширина 3, см</t>
+  </si>
+  <si>
+    <t>ширина 4, см</t>
+  </si>
+  <si>
+    <t>ширина 5, см</t>
+  </si>
+  <si>
+    <t>ширина 6, см</t>
+  </si>
+  <si>
+    <t>ширина 7, см</t>
+  </si>
+  <si>
+    <t>ширина 8, см</t>
+  </si>
+  <si>
+    <t>Требуемое количество полосок</t>
+  </si>
+  <si>
+    <t>Количество листов, шт</t>
+  </si>
+  <si>
+    <t>Требуемое количестволистов</t>
+  </si>
+  <si>
+    <t>необходимо полосок</t>
+  </si>
+  <si>
+    <t>выходит полосок</t>
+  </si>
+  <si>
+    <t>сохранить целые полоски</t>
+  </si>
+  <si>
+    <t>Общая площадьлистов, см2</t>
+  </si>
+  <si>
+    <t>Обрезки, см2</t>
+  </si>
+  <si>
+    <t>Всего будет полосок, шт</t>
+  </si>
+  <si>
+    <t>Площадь одного разделителя, см2</t>
+  </si>
+  <si>
+    <t>Площадь одного листа, см2</t>
+  </si>
+  <si>
+    <t>общая площадь листов</t>
+  </si>
+  <si>
+    <t>Обрезки:</t>
+  </si>
+  <si>
+    <t>24*18</t>
+  </si>
+  <si>
+    <t>14*18</t>
+  </si>
+  <si>
+    <t>15*18</t>
+  </si>
+  <si>
+    <t>16*18</t>
+  </si>
+  <si>
+    <t>17*18</t>
+  </si>
+  <si>
+    <t>18*18</t>
+  </si>
+  <si>
+    <t>Площадь 24</t>
+  </si>
+  <si>
+    <t>необходимо разделителей</t>
+  </si>
+  <si>
+    <t>выходит разделителей</t>
+  </si>
+  <si>
+    <t>сохранить целые разделители</t>
+  </si>
+  <si>
+    <t>Разделители:</t>
+  </si>
+  <si>
+    <t>Площадь:</t>
+  </si>
+  <si>
+    <t>Полоски:</t>
+  </si>
+  <si>
+    <t>Общая площадь листов</t>
+  </si>
 </sst>
 </file>
 
@@ -581,7 +758,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,16 +823,97 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -683,11 +941,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,7 +1190,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,6 +1208,244 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2959,30 +3653,30 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="F9" s="27">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="F9" s="26">
         <v>13</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>14</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="2"/>
-      <c r="N9" s="27">
-        <v>16</v>
-      </c>
-      <c r="O9" s="27"/>
+      <c r="N9" s="26">
+        <v>16</v>
+      </c>
+      <c r="O9" s="26"/>
       <c r="P9" s="2"/>
-      <c r="R9" s="27">
+      <c r="R9" s="26">
         <v>18</v>
       </c>
-      <c r="S9" s="27"/>
+      <c r="S9" s="26"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2997,27 +3691,27 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>16</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
         <v>16</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="28">
+      <c r="P10" s="27">
         <v>16</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="28">
+      <c r="T10" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B11">
@@ -3031,19 +3725,19 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="27"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="27"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="28"/>
+      <c r="P11" s="27"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="28"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12">
         <v>14</v>
       </c>
@@ -3055,19 +3749,19 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="27"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="27"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="28"/>
+      <c r="P12" s="27"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="28"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13">
         <v>16</v>
       </c>
@@ -3079,19 +3773,19 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="27"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="27"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="28"/>
+      <c r="P13" s="27"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="28"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14">
         <v>18</v>
       </c>
@@ -3103,16 +3797,16 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="27"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="27"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="28"/>
+      <c r="P14" s="27"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="28"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -3147,29 +3841,29 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>14</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="27">
-        <v>16</v>
-      </c>
-      <c r="K17" s="27"/>
+      <c r="J17" s="26">
+        <v>16</v>
+      </c>
+      <c r="K17" s="26"/>
       <c r="L17" s="2"/>
-      <c r="N17" s="27">
+      <c r="N17" s="26">
         <v>18</v>
       </c>
-      <c r="O17" s="27"/>
+      <c r="O17" s="26"/>
       <c r="P17" s="2"/>
-      <c r="R17" s="27">
+      <c r="R17" s="26">
         <v>20</v>
       </c>
-      <c r="S17" s="27"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B18">
@@ -3183,27 +3877,27 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>16</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <v>16</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="28">
+      <c r="P18" s="27">
         <v>16</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="28">
+      <c r="T18" s="27">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19">
         <v>16</v>
       </c>
@@ -3215,19 +3909,19 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="27"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="28"/>
+      <c r="L19" s="27"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="28"/>
+      <c r="P19" s="27"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="28"/>
+      <c r="T19" s="27"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20">
         <v>18</v>
       </c>
@@ -3239,19 +3933,19 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="28"/>
+      <c r="L20" s="27"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="28"/>
+      <c r="P20" s="27"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="28"/>
+      <c r="T20" s="27"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
       <c r="B21">
         <v>20</v>
       </c>
@@ -3263,30 +3957,30 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="27"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="27"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="28"/>
+      <c r="P21" s="27"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="28"/>
+      <c r="T21" s="27"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="27"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="27"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="28"/>
+      <c r="P22" s="27"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="28"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3294,11 +3988,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="F25" t="s">
         <v>83</v>
       </c>
@@ -7338,16 +8032,16 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>18</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>24</v>
       </c>
     </row>
@@ -7370,7 +8064,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="28"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -7391,7 +8085,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -7399,7 +8093,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -7413,12 +8107,12 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
@@ -7429,7 +8123,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -13404,7 +14098,7 @@
   <dimension ref="B1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14168,7 +14862,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14191,10 +14885,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
@@ -14906,7 +15600,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14930,10 +15624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
@@ -15675,7 +16369,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15699,10 +16393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
@@ -17457,11 +18151,3454 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:W19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="113" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" customWidth="1"/>
+    <col min="20" max="22" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="V3" s="127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="92">
+        <v>14</v>
+      </c>
+      <c r="B4" s="92">
+        <v>18</v>
+      </c>
+      <c r="C4" s="118">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="82">
+        <v>6</v>
+      </c>
+      <c r="E4" s="31">
+        <f>A4*$B$4*C4</f>
+        <v>252000</v>
+      </c>
+      <c r="F4" s="108">
+        <f>E4/$E$10</f>
+        <v>0.10687022900763359</v>
+      </c>
+      <c r="G4" s="93">
+        <f>$E$66*F4</f>
+        <v>15.581679389312974</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4/C4</f>
+        <v>1.5581679389312974E-2</v>
+      </c>
+      <c r="I4" s="32">
+        <f>H4+0.003</f>
+        <v>1.8581679389312974E-2</v>
+      </c>
+      <c r="J4" s="33">
+        <f>I4+0.007</f>
+        <v>2.5581679389312974E-2</v>
+      </c>
+      <c r="K4" s="124">
+        <f>C4/L15</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="L4" s="124">
+        <f>K4/L15</f>
+        <v>20.408163265306122</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="O4">
+        <f>7*6</f>
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>205</v>
+      </c>
+      <c r="T4" s="37">
+        <f>A4*B4</f>
+        <v>252</v>
+      </c>
+      <c r="U4" s="37">
+        <f>A66*B66</f>
+        <v>11564</v>
+      </c>
+      <c r="V4" s="37">
+        <f>D66*D4</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="92">
+        <v>15</v>
+      </c>
+      <c r="B5" s="92">
+        <v>18</v>
+      </c>
+      <c r="C5" s="118">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="82">
+        <v>6</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" ref="E5:E9" si="0">A5*$B$4*C5</f>
+        <v>270000</v>
+      </c>
+      <c r="F5" s="108">
+        <f>E5/$E$10</f>
+        <v>0.11450381679389313</v>
+      </c>
+      <c r="G5" s="93">
+        <f>$E$66*F5</f>
+        <v>16.694656488549615</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5/C5</f>
+        <v>1.6694656488549616E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <f>H5+0.003</f>
+        <v>1.9694656488549615E-2</v>
+      </c>
+      <c r="J5" s="33">
+        <f>I5+0.007</f>
+        <v>2.6694656488549615E-2</v>
+      </c>
+      <c r="K5" s="124">
+        <f t="shared" ref="K5:K7" si="1">C5/L16</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="L5" s="124">
+        <f>K5/L16</f>
+        <v>27.777777777777775</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="S5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="37">
+        <f>A5*B5</f>
+        <v>270</v>
+      </c>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="92">
+        <v>16</v>
+      </c>
+      <c r="B6" s="92">
+        <v>18</v>
+      </c>
+      <c r="C6" s="118">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="82">
+        <v>6</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" si="0"/>
+        <v>576000</v>
+      </c>
+      <c r="F6" s="108">
+        <f>E6/$E$10</f>
+        <v>0.24427480916030533</v>
+      </c>
+      <c r="G6" s="93">
+        <f>$E$66*F6</f>
+        <v>35.615267175572512</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6/C6</f>
+        <v>1.7807633587786257E-2</v>
+      </c>
+      <c r="I6" s="32">
+        <f>H6+0.003</f>
+        <v>2.0807633587786256E-2</v>
+      </c>
+      <c r="J6" s="33">
+        <f>I6+0.007</f>
+        <v>2.7807633587786255E-2</v>
+      </c>
+      <c r="K6" s="124">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L6" s="124">
+        <f>K6/L17</f>
+        <v>55.55555555555555</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="20"/>
+      <c r="S6" t="s">
+        <v>207</v>
+      </c>
+      <c r="T6" s="37">
+        <f t="shared" ref="T6:T9" si="2">A6*B6</f>
+        <v>288</v>
+      </c>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
+        <v>17</v>
+      </c>
+      <c r="B7" s="92">
+        <v>18</v>
+      </c>
+      <c r="C7" s="118">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="82">
+        <v>6</v>
+      </c>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
+        <v>612000</v>
+      </c>
+      <c r="F7" s="108">
+        <f>E7/$E$10</f>
+        <v>0.25954198473282442</v>
+      </c>
+      <c r="G7" s="93">
+        <f>$E$66*F7</f>
+        <v>37.841221374045794</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7/C7</f>
+        <v>1.8920610687022898E-2</v>
+      </c>
+      <c r="I7" s="32">
+        <f>H7+0.003</f>
+        <v>2.1920610687022897E-2</v>
+      </c>
+      <c r="J7" s="33">
+        <f>I7+0.007</f>
+        <v>2.8920610687022896E-2</v>
+      </c>
+      <c r="K7" s="124">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L7" s="124">
+        <f>K7/L18</f>
+        <v>55.55555555555555</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="20"/>
+      <c r="S7" t="s">
+        <v>208</v>
+      </c>
+      <c r="T7" s="37">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="92">
+        <v>18</v>
+      </c>
+      <c r="B8" s="92">
+        <v>18</v>
+      </c>
+      <c r="C8" s="118">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="82">
+        <v>6</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
+        <v>648000</v>
+      </c>
+      <c r="F8" s="108">
+        <f>E8/$E$10</f>
+        <v>0.27480916030534353</v>
+      </c>
+      <c r="G8" s="93">
+        <f>$E$66*F8</f>
+        <v>40.067175572519083</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8/C8</f>
+        <v>2.0033587786259542E-2</v>
+      </c>
+      <c r="I8" s="32">
+        <f>H8+0.003</f>
+        <v>2.3033587786259541E-2</v>
+      </c>
+      <c r="J8" s="33">
+        <f>I8+0.007</f>
+        <v>3.0033587786259541E-2</v>
+      </c>
+      <c r="K8" s="124">
+        <f>C8/L19</f>
+        <v>400</v>
+      </c>
+      <c r="L8" s="124">
+        <f>K8/L19</f>
+        <v>80</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="20"/>
+      <c r="S8" t="s">
+        <v>209</v>
+      </c>
+      <c r="T8" s="37">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="92">
+        <v>24</v>
+      </c>
+      <c r="B9" s="92">
+        <v>18</v>
+      </c>
+      <c r="C9" s="118">
+        <v>0</v>
+      </c>
+      <c r="D9" s="82">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="108">
+        <f>E9/$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="93">
+        <f>$E$66*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="20"/>
+      <c r="S9" t="s">
+        <v>204</v>
+      </c>
+      <c r="T9" s="37">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="37"/>
+      <c r="E10" s="34">
+        <f>SUM(E4:E9)</f>
+        <v>2358000</v>
+      </c>
+      <c r="F10" s="119">
+        <f>SUM(F4:F9)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="95">
+        <f>SUM(G4:G9)</f>
+        <v>145.79999999999998</v>
+      </c>
+      <c r="H10" s="96">
+        <f>SUM(H4:H9)</f>
+        <v>8.9038167938931295E-2</v>
+      </c>
+      <c r="I10" s="96">
+        <f>SUM(I4:I9)</f>
+        <v>0.10403816793893128</v>
+      </c>
+      <c r="J10" s="96">
+        <f>SUM(J4:J9)</f>
+        <v>0.13903816793893128</v>
+      </c>
+      <c r="K10" s="126">
+        <f>SUM(K4:K9)</f>
+        <v>1376.1904761904761</v>
+      </c>
+      <c r="L10" s="126">
+        <f t="shared" ref="L10" si="3">SUM(L4:L9)</f>
+        <v>239.297052154195</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="112"/>
+      <c r="N11" s="23"/>
+      <c r="U11" s="133" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="37">
+        <f>U4*D66</f>
+        <v>2810052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="L13" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="111"/>
+      <c r="L14" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="105">
+        <f>A4</f>
+        <v>14</v>
+      </c>
+      <c r="N14" s="105">
+        <f>A5</f>
+        <v>15</v>
+      </c>
+      <c r="O14" s="105">
+        <f>A6</f>
+        <v>16</v>
+      </c>
+      <c r="P14" s="105">
+        <f>A7</f>
+        <v>17</v>
+      </c>
+      <c r="Q14" s="105">
+        <f>A8</f>
+        <v>18</v>
+      </c>
+      <c r="R14" s="105">
+        <f>A9</f>
+        <v>24</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <f>SUM(B15:H15)</f>
+        <v>98</v>
+      </c>
+      <c r="B15" s="31">
+        <v>14</v>
+      </c>
+      <c r="C15" s="31">
+        <v>14</v>
+      </c>
+      <c r="D15" s="31">
+        <v>14</v>
+      </c>
+      <c r="E15" s="31">
+        <v>14</v>
+      </c>
+      <c r="F15" s="31">
+        <v>14</v>
+      </c>
+      <c r="G15" s="31">
+        <v>14</v>
+      </c>
+      <c r="H15" s="31">
+        <v>14</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="121">
+        <f>($A$66-A15)*$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="114"/>
+      <c r="L15" s="50">
+        <f>SUM(M15:R15)</f>
+        <v>7</v>
+      </c>
+      <c r="M15" s="31">
+        <f>COUNTIF($B15:$I15,M$14)</f>
+        <v>7</v>
+      </c>
+      <c r="N15" s="31">
+        <f>COUNTIF($B15:$I15,N$14)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
+        <f>COUNTIF($B15:$I15,O$14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
+        <f>COUNTIF($B15:$I15,P$14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <f>COUNTIF($B15:$I15,Q$14)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
+        <f>COUNTIF($B15:$I15,R$14)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>U12-E10</f>
+        <v>452052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <f>SUM(B16:H16)</f>
+        <v>96</v>
+      </c>
+      <c r="B16" s="31">
+        <v>15</v>
+      </c>
+      <c r="C16" s="31">
+        <v>15</v>
+      </c>
+      <c r="D16" s="31">
+        <v>15</v>
+      </c>
+      <c r="E16" s="31">
+        <v>15</v>
+      </c>
+      <c r="F16" s="31">
+        <v>18</v>
+      </c>
+      <c r="G16" s="31">
+        <v>18</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="121">
+        <f>($A$66-A16)*$B$4</f>
+        <v>36</v>
+      </c>
+      <c r="K16" s="114"/>
+      <c r="L16" s="50">
+        <f t="shared" ref="L16:L19" si="4">SUM(M16:R16)</f>
+        <v>6</v>
+      </c>
+      <c r="M16" s="31">
+        <f>COUNTIF($B16:$I16,M$14)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <f>COUNTIF($B16:$I16,N$14)</f>
+        <v>4</v>
+      </c>
+      <c r="O16" s="31">
+        <f>COUNTIF($B16:$I16,O$14)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="31">
+        <f>COUNTIF($B16:$I16,P$14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="31">
+        <f>COUNTIF($B16:$I16,Q$14)</f>
+        <v>2</v>
+      </c>
+      <c r="R16" s="31">
+        <f>COUNTIF($B16:$I16,R$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <f>SUM(B17:H17)</f>
+        <v>96</v>
+      </c>
+      <c r="B17" s="31">
+        <v>16</v>
+      </c>
+      <c r="C17" s="31">
+        <v>16</v>
+      </c>
+      <c r="D17" s="31">
+        <v>16</v>
+      </c>
+      <c r="E17" s="31">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31">
+        <v>16</v>
+      </c>
+      <c r="G17" s="31">
+        <v>16</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="121">
+        <f>($A$66-A17)*$B$4</f>
+        <v>36</v>
+      </c>
+      <c r="K17" s="114"/>
+      <c r="L17" s="50">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="31">
+        <f>COUNTIF($B17:$I17,M$14)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <f>COUNTIF($B17:$I17,N$14)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="31">
+        <f>COUNTIF($B17:$I17,O$14)</f>
+        <v>6</v>
+      </c>
+      <c r="P17" s="31">
+        <f>COUNTIF($B17:$I17,P$14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="31">
+        <f>COUNTIF($B17:$I17,Q$14)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="31">
+        <f>COUNTIF($B17:$I17,R$14)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <f>SUM(B18:H18)</f>
+        <v>98</v>
+      </c>
+      <c r="B18" s="31">
+        <v>17</v>
+      </c>
+      <c r="C18" s="31">
+        <v>17</v>
+      </c>
+      <c r="D18" s="31">
+        <v>17</v>
+      </c>
+      <c r="E18" s="31">
+        <v>17</v>
+      </c>
+      <c r="F18" s="31">
+        <v>16</v>
+      </c>
+      <c r="G18" s="31">
+        <v>14</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="121">
+        <f>($A$66-A18)*$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="114"/>
+      <c r="L18" s="50">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M18" s="31">
+        <f>COUNTIF($B18:$I18,M$14)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="31">
+        <f>COUNTIF($B18:$I18,N$14)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="31">
+        <f>COUNTIF($B18:$I18,O$14)</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="31">
+        <f>COUNTIF($B18:$I18,P$14)</f>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="31">
+        <f>COUNTIF($B18:$I18,Q$14)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="31">
+        <f>COUNTIF($B18:$I18,R$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <f>SUM(B19:H19)</f>
+        <v>96</v>
+      </c>
+      <c r="B19" s="31">
+        <v>18</v>
+      </c>
+      <c r="C19" s="31">
+        <v>18</v>
+      </c>
+      <c r="D19" s="31">
+        <v>18</v>
+      </c>
+      <c r="E19" s="31">
+        <v>18</v>
+      </c>
+      <c r="F19" s="106">
+        <v>24</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="121">
+        <f>($A$66-A19)*$B$4</f>
+        <v>36</v>
+      </c>
+      <c r="K19" s="114"/>
+      <c r="L19" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M19" s="31">
+        <f>COUNTIF($B19:$I19,M$14)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <f>COUNTIF($B19:$I19,N$14)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <f>COUNTIF($B19:$I19,O$14)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <f>COUNTIF($B19:$I19,P$14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="31">
+        <f>COUNTIF($B19:$I19,Q$14)</f>
+        <v>4</v>
+      </c>
+      <c r="R19" s="31">
+        <f>COUNTIF($B19:$I19,R$14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M20" s="107">
+        <f>SUM(M15:M19)</f>
+        <v>8</v>
+      </c>
+      <c r="N20" s="107">
+        <f t="shared" ref="N20:R20" si="5">SUM(N15:N19)</f>
+        <v>4</v>
+      </c>
+      <c r="O20" s="107">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="P20" s="107">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="107">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R20" s="107">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="127">
+        <f>M14</f>
+        <v>14</v>
+      </c>
+      <c r="D22" s="127">
+        <f t="shared" ref="D22:H22" si="6">N14</f>
+        <v>15</v>
+      </c>
+      <c r="E22" s="127">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F22" s="127">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G22" s="127">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="H22" s="127">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="129">
+        <v>12</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="47">
+        <f>$A23*M15*$D$4</f>
+        <v>504</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" ref="D23:H27" si="7">$A23*N15*$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="135">
+        <f>A23*J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="129">
+        <v>42</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="47">
+        <f t="shared" ref="C24:C27" si="8">$A24*M16*$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="47">
+        <f>$A24*N16*$D$4</f>
+        <v>1008</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="47">
+        <f t="shared" si="7"/>
+        <v>504</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="135">
+        <f t="shared" ref="I24:I27" si="9">A24*J16</f>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="129">
+        <v>42</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="7"/>
+        <v>1512</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="135">
+        <f t="shared" si="9"/>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="129">
+        <v>84</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="47">
+        <f t="shared" si="8"/>
+        <v>504</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="7"/>
+        <v>504</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="7"/>
+        <v>2016</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="129">
+        <v>63</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="47">
+        <f t="shared" si="7"/>
+        <v>1512</v>
+      </c>
+      <c r="H27" s="47">
+        <f t="shared" si="7"/>
+        <v>378</v>
+      </c>
+      <c r="I27" s="135">
+        <f t="shared" si="9"/>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="129">
+        <f>SUM(A23:A27)</f>
+        <v>243</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="135">
+        <f>SUM(I23:I27)</f>
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="131">
+        <f>C31-C32</f>
+        <v>8</v>
+      </c>
+      <c r="D30" s="131">
+        <f t="shared" ref="D30" si="10">D31-D32</f>
+        <v>8</v>
+      </c>
+      <c r="E30" s="131">
+        <f>E31-E32</f>
+        <v>16</v>
+      </c>
+      <c r="F30" s="131">
+        <f t="shared" ref="F30" si="11">F31-F32</f>
+        <v>16</v>
+      </c>
+      <c r="G30" s="131">
+        <f>G31-G32</f>
+        <v>16</v>
+      </c>
+      <c r="H30" s="131">
+        <f>H31-H32</f>
+        <v>378</v>
+      </c>
+      <c r="I30" s="47">
+        <f>SUM(C30:H30)</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="47">
+        <f>SUM(C23:C27)</f>
+        <v>1008</v>
+      </c>
+      <c r="D31" s="47">
+        <f>SUM(D23:D27)</f>
+        <v>1008</v>
+      </c>
+      <c r="E31" s="47">
+        <f>SUM(E23:E27)</f>
+        <v>2016</v>
+      </c>
+      <c r="F31" s="47">
+        <f>SUM(F23:F27)</f>
+        <v>2016</v>
+      </c>
+      <c r="G31" s="47">
+        <f>SUM(G23:G27)</f>
+        <v>2016</v>
+      </c>
+      <c r="H31" s="47">
+        <f>SUM(H23:H27)</f>
+        <v>378</v>
+      </c>
+      <c r="I31" s="47">
+        <f>SUM(C31:H31)</f>
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="47">
+        <f>C4</f>
+        <v>1000</v>
+      </c>
+      <c r="D32" s="47">
+        <f>C5</f>
+        <v>1000</v>
+      </c>
+      <c r="E32" s="47">
+        <f>C6</f>
+        <v>2000</v>
+      </c>
+      <c r="F32" s="47">
+        <f>C7</f>
+        <v>2000</v>
+      </c>
+      <c r="G32" s="47">
+        <f>C8</f>
+        <v>2000</v>
+      </c>
+      <c r="H32" s="47">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="47">
+        <f>SUM(C32:H32)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="127">
+        <f t="shared" ref="C35:H35" si="12">C22</f>
+        <v>14</v>
+      </c>
+      <c r="D35" s="127">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="E35" s="127">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="F35" s="127">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="G35" s="127">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H35" s="127">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="129">
+        <f t="shared" ref="A36:A40" si="13">A23</f>
+        <v>12</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="47">
+        <f>C$35*18*C23</f>
+        <v>127008</v>
+      </c>
+      <c r="D36" s="47">
+        <f t="shared" ref="D36:H36" si="14">D$35*18*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="47">
+        <f>F$35*18*F23</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="135">
+        <f>$A36*$U$4</f>
+        <v>138768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="129">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="47">
+        <f t="shared" ref="C37:H37" si="15">C$35*18*C24</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="47">
+        <f t="shared" si="15"/>
+        <v>272160</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="47">
+        <f t="shared" si="15"/>
+        <v>163296</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="135">
+        <f t="shared" ref="I37:I40" si="16">$A37*$U$4</f>
+        <v>485688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="129">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="47">
+        <f t="shared" ref="C38:H38" si="17">C$35*18*C25</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="17"/>
+        <v>435456</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="135">
+        <f t="shared" si="16"/>
+        <v>485688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="129">
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="47">
+        <f t="shared" ref="C39:H39" si="18">C$35*18*C26</f>
+        <v>127008</v>
+      </c>
+      <c r="D39" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="47">
+        <f t="shared" si="18"/>
+        <v>145152</v>
+      </c>
+      <c r="F39" s="47">
+        <f t="shared" si="18"/>
+        <v>616896</v>
+      </c>
+      <c r="G39" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="135">
+        <f t="shared" si="16"/>
+        <v>971376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="129">
+        <f t="shared" si="13"/>
+        <v>63</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="47">
+        <f t="shared" ref="C40:H40" si="19">C$35*18*C27</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="47">
+        <f>G$35*18*G27</f>
+        <v>489888</v>
+      </c>
+      <c r="H40" s="47">
+        <f t="shared" si="19"/>
+        <v>163296</v>
+      </c>
+      <c r="I40" s="135">
+        <f t="shared" si="16"/>
+        <v>728532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="129">
+        <f>SUM(A36:A40)</f>
+        <v>243</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52">
+        <f>SUM(C36:C40)</f>
+        <v>254016</v>
+      </c>
+      <c r="D41" s="52">
+        <f t="shared" ref="D41:H41" si="20">SUM(D36:D40)</f>
+        <v>272160</v>
+      </c>
+      <c r="E41" s="52">
+        <f t="shared" si="20"/>
+        <v>580608</v>
+      </c>
+      <c r="F41" s="52">
+        <f t="shared" si="20"/>
+        <v>616896</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" si="20"/>
+        <v>653184</v>
+      </c>
+      <c r="H41" s="52">
+        <f t="shared" si="20"/>
+        <v>163296</v>
+      </c>
+      <c r="I41" s="132">
+        <f>SUM(I36:I40)</f>
+        <v>2810052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="139">
+        <f>SUM(C41:H41)</f>
+        <v>2540160</v>
+      </c>
+      <c r="I42" s="140">
+        <f>I41-H42</f>
+        <v>269892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="131">
+        <f>C44-C45</f>
+        <v>254001</v>
+      </c>
+      <c r="D43" s="131">
+        <f t="shared" ref="D43" si="21">D44-D45</f>
+        <v>272144</v>
+      </c>
+      <c r="E43" s="131">
+        <f>E44-E45</f>
+        <v>580591</v>
+      </c>
+      <c r="F43" s="131">
+        <f t="shared" ref="F43" si="22">F44-F45</f>
+        <v>616878</v>
+      </c>
+      <c r="G43" s="131">
+        <f>G44-G45</f>
+        <v>653184</v>
+      </c>
+      <c r="H43" s="131">
+        <f>H44-H45</f>
+        <v>163296</v>
+      </c>
+      <c r="I43" s="47">
+        <f>SUM(C43:H43)</f>
+        <v>2540094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="47">
+        <f>SUM(C36:C40)</f>
+        <v>254016</v>
+      </c>
+      <c r="D44" s="47">
+        <f>SUM(D36:D40)</f>
+        <v>272160</v>
+      </c>
+      <c r="E44" s="47">
+        <f>SUM(E36:E40)</f>
+        <v>580608</v>
+      </c>
+      <c r="F44" s="47">
+        <f>SUM(F36:F40)</f>
+        <v>616896</v>
+      </c>
+      <c r="G44" s="47">
+        <f>SUM(G36:G40)</f>
+        <v>653184</v>
+      </c>
+      <c r="H44" s="47">
+        <f>SUM(H36:H40)</f>
+        <v>163296</v>
+      </c>
+      <c r="I44" s="47">
+        <f>SUM(C44:H44)</f>
+        <v>2540160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="47">
+        <f>C16</f>
+        <v>15</v>
+      </c>
+      <c r="D45" s="47">
+        <f>C17</f>
+        <v>16</v>
+      </c>
+      <c r="E45" s="47">
+        <f>C18</f>
+        <v>17</v>
+      </c>
+      <c r="F45" s="47">
+        <f>C19</f>
+        <v>18</v>
+      </c>
+      <c r="G45" s="47">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="47">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="47">
+        <f>SUM(C45:H45)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="127">
+        <f t="shared" ref="C48:H48" si="23">C35</f>
+        <v>14</v>
+      </c>
+      <c r="D48" s="127">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="E48" s="127">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="F48" s="127">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="G48" s="127">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="H48" s="127">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="115"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="129">
+        <f t="shared" ref="A49:A53" si="24">A36</f>
+        <v>12</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37">
+        <f>$A$49*M15</f>
+        <v>84</v>
+      </c>
+      <c r="D49" s="37">
+        <f>$A$49*N15</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="37">
+        <f>$A$49*O15</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="37">
+        <f>$A$49*P15</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="37">
+        <f>$A$49*Q15</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="37">
+        <f>$A$49*R15</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="135">
+        <f>A49*J15</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="134">
+        <f>12*6</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="129">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37">
+        <f>$A$50*M16</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="37">
+        <f>$A$50*N16</f>
+        <v>168</v>
+      </c>
+      <c r="E50" s="37">
+        <f>$A$50*O16</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="37">
+        <f>$A$50*P16</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="37">
+        <f>$A$50*Q16</f>
+        <v>84</v>
+      </c>
+      <c r="H50" s="37">
+        <f>$A$50*R16</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="135">
+        <f>A50*J16</f>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="129">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37">
+        <f>$A$51*M17</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="37">
+        <f>$A$51*N17</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="37">
+        <f>$A$51*O17</f>
+        <v>252</v>
+      </c>
+      <c r="F51" s="37">
+        <f>$A$51*P17</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="37">
+        <f>$A$51*Q17</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="37">
+        <f>$A$51*R17</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="135">
+        <f>A51*J17</f>
+        <v>1512</v>
+      </c>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="129">
+        <f t="shared" si="24"/>
+        <v>84</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37">
+        <f>$A$52*M18</f>
+        <v>84</v>
+      </c>
+      <c r="D52" s="37">
+        <f>$A$52*N18</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="37">
+        <f>$A$52*O18</f>
+        <v>84</v>
+      </c>
+      <c r="F52" s="37">
+        <f>$A$52*P18</f>
+        <v>336</v>
+      </c>
+      <c r="G52" s="37">
+        <f>$A$52*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="37">
+        <f>$A$52*R18</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="135">
+        <f>A52*J18</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="129">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37">
+        <f>$A$53*M19</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="37">
+        <f>$A$53*N19</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="37">
+        <f>$A$53*O19</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="37">
+        <f>$A$53*P19</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="37">
+        <f>$A$53*Q19</f>
+        <v>252</v>
+      </c>
+      <c r="H53" s="37">
+        <f>$A$53*R19</f>
+        <v>63</v>
+      </c>
+      <c r="I53" s="135">
+        <f>A53*J19</f>
+        <v>2268</v>
+      </c>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" s="129">
+        <f>SUM(A49:A53)</f>
+        <v>243</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="135">
+        <f>SUM(I49:I53)</f>
+        <v>5292</v>
+      </c>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B55" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="131">
+        <f>C57-C58</f>
+        <v>25.142857142857139</v>
+      </c>
+      <c r="D56" s="131">
+        <f t="shared" ref="D56:F56" si="25">D57-D58</f>
+        <v>1.3333333333333428</v>
+      </c>
+      <c r="E56" s="131">
+        <f>E57-E58</f>
+        <v>2.6666666666666856</v>
+      </c>
+      <c r="F56" s="131">
+        <f t="shared" si="25"/>
+        <v>2.6666666666666856</v>
+      </c>
+      <c r="G56" s="131">
+        <f>G57-G58</f>
+        <v>-64</v>
+      </c>
+      <c r="H56" s="131">
+        <f>H57-H58</f>
+        <v>63</v>
+      </c>
+      <c r="I56" s="47">
+        <f>SUM(C56:H56)</f>
+        <v>30.809523809523853</v>
+      </c>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B57" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="47">
+        <f>SUM(C49:C53)</f>
+        <v>168</v>
+      </c>
+      <c r="D57" s="47">
+        <f>SUM(D49:D53)</f>
+        <v>168</v>
+      </c>
+      <c r="E57" s="47">
+        <f>SUM(E49:E53)</f>
+        <v>336</v>
+      </c>
+      <c r="F57" s="47">
+        <f>SUM(F49:F53)</f>
+        <v>336</v>
+      </c>
+      <c r="G57" s="47">
+        <f>SUM(G49:G53)</f>
+        <v>336</v>
+      </c>
+      <c r="H57" s="47">
+        <f>SUM(H49:H53)</f>
+        <v>63</v>
+      </c>
+      <c r="I57" s="47">
+        <f>SUM(C57:H57)</f>
+        <v>1407</v>
+      </c>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B58" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="47">
+        <f>K4</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="D58" s="47">
+        <f>K5</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E58" s="47">
+        <f>K6</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="F58" s="47">
+        <f>K7</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="G58" s="47">
+        <f>K8</f>
+        <v>400</v>
+      </c>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47">
+        <f>SUM(C58:H58)</f>
+        <v>1376.1904761904761</v>
+      </c>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+    </row>
+    <row r="60" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="41">
+        <v>14</v>
+      </c>
+      <c r="C61" s="41">
+        <v>7</v>
+      </c>
+      <c r="D61" s="41">
+        <v>6</v>
+      </c>
+      <c r="E61" s="41">
+        <f>C61*D61</f>
+        <v>42</v>
+      </c>
+      <c r="F61" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="41">
+        <f>F61/E61</f>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
+    </row>
+    <row r="65" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65">
+        <f>24*18</f>
+        <v>432</v>
+      </c>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="31">
+        <v>98</v>
+      </c>
+      <c r="B66" s="31">
+        <v>118</v>
+      </c>
+      <c r="C66" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D66" s="102">
+        <f>SUM(A49:A53)</f>
+        <v>243</v>
+      </c>
+      <c r="E66" s="103">
+        <f>D66*C66</f>
+        <v>145.79999999999998</v>
+      </c>
+      <c r="F66" s="37">
+        <f>A66*B66*D66</f>
+        <v>2810052</v>
+      </c>
+      <c r="G66" s="37">
+        <f>$I$54</f>
+        <v>5292</v>
+      </c>
+      <c r="H66">
+        <f>F66-G66</f>
+        <v>2804760</v>
+      </c>
+      <c r="J66">
+        <f>J65*A53</f>
+        <v>27216</v>
+      </c>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f>H66-E10</f>
+        <v>446760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" s="86">
+        <f>$A$66/A4</f>
+        <v>7</v>
+      </c>
+      <c r="B70" s="86">
+        <f>$A$66/$B$4</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="C70" s="86">
+        <f>$B$66/A4</f>
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="D70" s="84">
+        <f>$B$66/$B$4</f>
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="86">
+        <f>$A$66/A5</f>
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="B71" s="86">
+        <f>$A$66/$B$4</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="C71" s="86">
+        <f>$B$66/A5</f>
+        <v>7.8666666666666663</v>
+      </c>
+      <c r="D71" s="84">
+        <f>$B$66/$B$4</f>
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="86">
+        <f>$A$66/A6</f>
+        <v>6.125</v>
+      </c>
+      <c r="B72" s="86">
+        <f>$A$66/$B$4</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="C72" s="86">
+        <f>$B$66/A6</f>
+        <v>7.375</v>
+      </c>
+      <c r="D72" s="84">
+        <f>$B$66/$B$4</f>
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="86">
+        <f>$A$66/A7</f>
+        <v>5.7647058823529411</v>
+      </c>
+      <c r="B73" s="86">
+        <f>$A$66/$B$4</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="C73" s="86">
+        <f>$B$66/A7</f>
+        <v>6.9411764705882355</v>
+      </c>
+      <c r="D73" s="84">
+        <f>$B$66/$B$4</f>
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="86">
+        <f>$A$66/A8</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="B74" s="86">
+        <f>$A$66/$B$4</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="C74" s="86">
+        <f>$B$66/A8</f>
+        <v>6.5555555555555554</v>
+      </c>
+      <c r="D74" s="84">
+        <f>$B$66/$B$4</f>
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="86">
+        <f>$A$66/A9</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="B75" s="86">
+        <f>$A$66/$B$4</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="C75" s="86">
+        <f>$B$66/A9</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="D75" s="84">
+        <f>$B$66/$B$4</f>
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A64:E64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:W23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>14</v>
+      </c>
+      <c r="B3" s="48">
+        <v>18</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="48">
+        <v>7</v>
+      </c>
+      <c r="E3" s="48">
+        <f>A3*B3*C3</f>
+        <v>252000</v>
+      </c>
+      <c r="F3" s="76">
+        <f>E3/$E$8</f>
+        <v>0.10687022900763359</v>
+      </c>
+      <c r="G3" s="76">
+        <f>$E$19*F3</f>
+        <v>19.302045801526717</v>
+      </c>
+      <c r="H3" s="77">
+        <f>G3/C3</f>
+        <v>1.9302045801526717E-2</v>
+      </c>
+      <c r="I3" s="77">
+        <f>H3+0.003</f>
+        <v>2.2302045801526716E-2</v>
+      </c>
+      <c r="J3" s="78">
+        <f>I3+0.008</f>
+        <v>3.0302045801526716E-2</v>
+      </c>
+      <c r="K3" s="77">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L3" s="77">
+        <f>K3-J3</f>
+        <v>-3.3020458015267165E-3</v>
+      </c>
+      <c r="M3" s="79">
+        <f>L3*C3</f>
+        <v>-3.3020458015267167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>15</v>
+      </c>
+      <c r="B4" s="48">
+        <v>18</v>
+      </c>
+      <c r="C4" s="48">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="48">
+        <v>7</v>
+      </c>
+      <c r="E4" s="48">
+        <f>A4*B4*C4</f>
+        <v>270000</v>
+      </c>
+      <c r="F4" s="76">
+        <f>E4/$E$8</f>
+        <v>0.11450381679389313</v>
+      </c>
+      <c r="G4" s="76">
+        <f>$E$19*F4</f>
+        <v>20.680763358778623</v>
+      </c>
+      <c r="H4" s="77">
+        <f>G4/C4</f>
+        <v>2.0680763358778623E-2</v>
+      </c>
+      <c r="I4" s="77">
+        <f>H4+0.003</f>
+        <v>2.3680763358778622E-2</v>
+      </c>
+      <c r="J4" s="78">
+        <f>I4+0.008</f>
+        <v>3.1680763358778619E-2</v>
+      </c>
+      <c r="K4" s="77">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="L4" s="77">
+        <f>K4-J4</f>
+        <v>-1.9807633587786179E-3</v>
+      </c>
+      <c r="M4" s="79">
+        <f>L4*C4</f>
+        <v>-1.980763358778618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56">
+        <v>16</v>
+      </c>
+      <c r="B5" s="48">
+        <v>18</v>
+      </c>
+      <c r="C5" s="48">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="48">
+        <v>7</v>
+      </c>
+      <c r="E5" s="48">
+        <f>A5*B5*C5</f>
+        <v>576000</v>
+      </c>
+      <c r="F5" s="76">
+        <f>E5/$E$8</f>
+        <v>0.24427480916030533</v>
+      </c>
+      <c r="G5" s="76">
+        <f>$E$19*F5</f>
+        <v>44.118961832061068</v>
+      </c>
+      <c r="H5" s="77">
+        <f>G5/C5</f>
+        <v>2.2059480916030536E-2</v>
+      </c>
+      <c r="I5" s="77">
+        <f>H5+0.003</f>
+        <v>2.5059480916030535E-2</v>
+      </c>
+      <c r="J5" s="78">
+        <f>I5+0.008</f>
+        <v>3.3059480916030531E-2</v>
+      </c>
+      <c r="K5" s="77">
+        <v>2.98E-2</v>
+      </c>
+      <c r="L5" s="77">
+        <f>K5-J5</f>
+        <v>-3.2594809160305313E-3</v>
+      </c>
+      <c r="M5" s="79">
+        <f>L5*C5</f>
+        <v>-6.5189618320610627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>17</v>
+      </c>
+      <c r="B6" s="48">
+        <v>18</v>
+      </c>
+      <c r="C6" s="48">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="48">
+        <v>7</v>
+      </c>
+      <c r="E6" s="48">
+        <f>A6*B6*C6</f>
+        <v>612000</v>
+      </c>
+      <c r="F6" s="76">
+        <f>E6/$E$8</f>
+        <v>0.25954198473282442</v>
+      </c>
+      <c r="G6" s="76">
+        <f>$E$19*F6</f>
+        <v>46.876396946564881</v>
+      </c>
+      <c r="H6" s="77">
+        <f>G6/C6</f>
+        <v>2.3438198473282441E-2</v>
+      </c>
+      <c r="I6" s="77">
+        <f>H6+0.003</f>
+        <v>2.6438198473282441E-2</v>
+      </c>
+      <c r="J6" s="78">
+        <f>I6+0.008</f>
+        <v>3.4438198473282444E-2</v>
+      </c>
+      <c r="K6" s="77">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="L6" s="77">
+        <f>K6-J6</f>
+        <v>-1.0381984732824451E-3</v>
+      </c>
+      <c r="M6" s="79">
+        <f>L6*C6</f>
+        <v>-2.0763969465648904</v>
+      </c>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>18</v>
+      </c>
+      <c r="B7" s="48">
+        <v>18</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="48">
+        <v>7</v>
+      </c>
+      <c r="E7" s="48">
+        <f>A7*B7*C7</f>
+        <v>648000</v>
+      </c>
+      <c r="F7" s="76">
+        <f>E7/$E$8</f>
+        <v>0.27480916030534353</v>
+      </c>
+      <c r="G7" s="76">
+        <f>$E$19*F7</f>
+        <v>49.633832061068702</v>
+      </c>
+      <c r="H7" s="77">
+        <f>G7/C7</f>
+        <v>2.4816916030534351E-2</v>
+      </c>
+      <c r="I7" s="77">
+        <f>H7+0.003</f>
+        <v>2.781691603053435E-2</v>
+      </c>
+      <c r="J7" s="78">
+        <f>I7+0.008</f>
+        <v>3.581691603053435E-2</v>
+      </c>
+      <c r="K7" s="77">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="L7" s="77">
+        <f>K7-J7</f>
+        <v>-2.4169160305343509E-3</v>
+      </c>
+      <c r="M7" s="79">
+        <f>L7*C7</f>
+        <v>-4.8338320610687022</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="67">
+        <f>R8-R9</f>
+        <v>0.1428571428571388</v>
+      </c>
+      <c r="S7" s="67">
+        <f t="shared" ref="R7:W7" si="0">S8-S9</f>
+        <v>2.1428571428571388</v>
+      </c>
+      <c r="T7" s="67">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142776</v>
+      </c>
+      <c r="U7" s="67">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142776</v>
+      </c>
+      <c r="V7" s="67">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142776</v>
+      </c>
+      <c r="W7" s="68">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59">
+        <f>SUM(E3:E7)</f>
+        <v>2358000</v>
+      </c>
+      <c r="F8" s="80">
+        <f>SUM(F3:F7)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="81">
+        <f>SUM(M3:M7)</f>
+        <v>-18.711999999999989</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="67">
+        <f t="shared" ref="R8:W8" si="1">SUM(R11:R15)</f>
+        <v>143</v>
+      </c>
+      <c r="S8" s="67">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="T8" s="67">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="U8" s="67">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="V8" s="67">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="W8" s="68">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="56"/>
+      <c r="Q9" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="67">
+        <f>C3/D3</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="S9" s="67">
+        <f>C4/D4</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="T9" s="67">
+        <f>C5/D5</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="U9" s="67">
+        <f>C6/D6</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="V9" s="67">
+        <f>C7/D7</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="W9" s="68"/>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="53">
+        <v>14</v>
+      </c>
+      <c r="K10" s="54">
+        <v>15</v>
+      </c>
+      <c r="L10" s="54">
+        <v>16</v>
+      </c>
+      <c r="M10" s="54">
+        <v>17</v>
+      </c>
+      <c r="N10" s="54">
+        <v>18</v>
+      </c>
+      <c r="O10" s="54">
+        <v>24</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49">
+        <v>14</v>
+      </c>
+      <c r="S10" s="49">
+        <v>15</v>
+      </c>
+      <c r="T10" s="49">
+        <v>16</v>
+      </c>
+      <c r="U10" s="49">
+        <v>17</v>
+      </c>
+      <c r="V10" s="49">
+        <v>18</v>
+      </c>
+      <c r="W10" s="70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <f>SUM(B11:I11)</f>
+        <v>115</v>
+      </c>
+      <c r="B11" s="48">
+        <v>14</v>
+      </c>
+      <c r="C11" s="48">
+        <v>14</v>
+      </c>
+      <c r="D11" s="48">
+        <v>14</v>
+      </c>
+      <c r="E11" s="48">
+        <v>14</v>
+      </c>
+      <c r="F11" s="48">
+        <v>14</v>
+      </c>
+      <c r="G11" s="48">
+        <v>14</v>
+      </c>
+      <c r="H11" s="48">
+        <v>14</v>
+      </c>
+      <c r="I11" s="57">
+        <v>17</v>
+      </c>
+      <c r="J11" s="45">
+        <f>COUNTIF($B11:$I11,J$10)</f>
+        <v>7</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" ref="K11:O15" si="2">COUNTIF($B11:$I11,K$10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="69">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48">
+        <f>$P$11*J11</f>
+        <v>98</v>
+      </c>
+      <c r="S11" s="48">
+        <f t="shared" ref="R11:W11" si="3">$P$11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="48">
+        <f>$P$11*M11</f>
+        <v>14</v>
+      </c>
+      <c r="V11" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <f>SUM(B12:I12)</f>
+        <v>111</v>
+      </c>
+      <c r="B12" s="48">
+        <v>15</v>
+      </c>
+      <c r="C12" s="48">
+        <v>15</v>
+      </c>
+      <c r="D12" s="48">
+        <v>15</v>
+      </c>
+      <c r="E12" s="48">
+        <v>15</v>
+      </c>
+      <c r="F12" s="48">
+        <v>15</v>
+      </c>
+      <c r="G12" s="48">
+        <v>18</v>
+      </c>
+      <c r="H12" s="48">
+        <v>18</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="45">
+        <f t="shared" ref="J12:J15" si="4">COUNTIF($B12:$I12,J$10)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="69">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48">
+        <f>$P$12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="48">
+        <f t="shared" ref="R12:W12" si="5">$P$12*K12</f>
+        <v>145</v>
+      </c>
+      <c r="T12" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="48">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="W12" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <f>SUM(B13:I13)</f>
+        <v>115</v>
+      </c>
+      <c r="B13" s="48">
+        <v>16</v>
+      </c>
+      <c r="C13" s="48">
+        <v>16</v>
+      </c>
+      <c r="D13" s="48">
+        <v>16</v>
+      </c>
+      <c r="E13" s="48">
+        <v>16</v>
+      </c>
+      <c r="F13" s="48">
+        <v>16</v>
+      </c>
+      <c r="G13" s="48">
+        <v>17</v>
+      </c>
+      <c r="H13" s="48">
+        <v>18</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="69">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48">
+        <f t="shared" ref="R13:W13" si="6">$P$13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="48">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="U13" s="48">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="V13" s="48">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="W13" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
+        <f>SUM(B14:I14)</f>
+        <v>115</v>
+      </c>
+      <c r="B14" s="48">
+        <v>17</v>
+      </c>
+      <c r="C14" s="48">
+        <v>17</v>
+      </c>
+      <c r="D14" s="48">
+        <v>17</v>
+      </c>
+      <c r="E14" s="48">
+        <v>17</v>
+      </c>
+      <c r="F14" s="48">
+        <v>17</v>
+      </c>
+      <c r="G14" s="48">
+        <v>16</v>
+      </c>
+      <c r="H14" s="48">
+        <v>14</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="69">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48">
+        <f t="shared" ref="R14:W14" si="7">$P$14*J14</f>
+        <v>45</v>
+      </c>
+      <c r="S14" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="48">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="U14" s="48">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="V14" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58">
+        <f>SUM(B15:I15)</f>
+        <v>114</v>
+      </c>
+      <c r="B15" s="59">
+        <v>18</v>
+      </c>
+      <c r="C15" s="59">
+        <v>18</v>
+      </c>
+      <c r="D15" s="59">
+        <v>18</v>
+      </c>
+      <c r="E15" s="59">
+        <v>18</v>
+      </c>
+      <c r="F15" s="59">
+        <v>18</v>
+      </c>
+      <c r="G15" s="59">
+        <v>24</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="71">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59">
+        <f t="shared" ref="R15:W15" si="8">$P$15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="59">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="W15" s="60">
+        <f>$P$15*O15</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17">
+        <f>R10</f>
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:V17" si="9">S10</f>
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f>P11</f>
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <f>R11*7</f>
+        <v>686</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:V18" si="10">S11*7</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <v>126</v>
+      </c>
+      <c r="C19">
+        <v>1.044</v>
+      </c>
+      <c r="D19">
+        <f>SUM(P11:P15)</f>
+        <v>173</v>
+      </c>
+      <c r="E19">
+        <f>D19*C19</f>
+        <v>180.61199999999999</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P22" si="11">P12</f>
+        <v>29</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:V22" si="12">R12*7</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>1015</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="12"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>1715</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D21" s="20">
+        <f>B19/B3</f>
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="12"/>
+        <v>1575</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="12"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f>SUM(R18:R22)</f>
+        <v>1001</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:V23" si="13">SUM(S18:S22)</f>
+        <v>1015</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="13"/>
+        <v>2030</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="13"/>
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:W23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17477,734 +21614,7 @@
     <col min="10" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="D1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f>A3*B3*C3</f>
-        <v>252000</v>
-      </c>
-      <c r="F3" s="21">
-        <f>E3/$E$8</f>
-        <v>0.10687022900763359</v>
-      </c>
-      <c r="G3" s="21">
-        <f>$E$19*F3</f>
-        <v>16.03053435114504</v>
-      </c>
-      <c r="H3" s="22">
-        <f>G3/C3</f>
-        <v>1.6030534351145039E-2</v>
-      </c>
-      <c r="I3" s="22">
-        <f>H3+0.003</f>
-        <v>1.9030534351145038E-2</v>
-      </c>
-      <c r="J3" s="24">
-        <f>I3+0.007</f>
-        <v>2.6030534351145038E-2</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <f>A4*B4*C4</f>
-        <v>270000</v>
-      </c>
-      <c r="F4" s="21">
-        <f>E4/$E$8</f>
-        <v>0.11450381679389313</v>
-      </c>
-      <c r="G4" s="21">
-        <f>$E$19*F4</f>
-        <v>17.175572519083968</v>
-      </c>
-      <c r="H4" s="22">
-        <f>G4/C4</f>
-        <v>1.7175572519083967E-2</v>
-      </c>
-      <c r="I4" s="22">
-        <f>H4+0.003</f>
-        <v>2.0175572519083966E-2</v>
-      </c>
-      <c r="J4" s="24">
-        <f>I4+0.007</f>
-        <v>2.7175572519083965E-2</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <f>A5*B5*C5</f>
-        <v>576000</v>
-      </c>
-      <c r="F5" s="21">
-        <f>E5/$E$8</f>
-        <v>0.24427480916030533</v>
-      </c>
-      <c r="G5" s="21">
-        <f>$E$19*F5</f>
-        <v>36.641221374045799</v>
-      </c>
-      <c r="H5" s="22">
-        <f>G5/C5</f>
-        <v>1.8320610687022898E-2</v>
-      </c>
-      <c r="I5" s="22">
-        <f>H5+0.003</f>
-        <v>2.1320610687022897E-2</v>
-      </c>
-      <c r="J5" s="24">
-        <f>I5+0.007</f>
-        <v>2.8320610687022896E-2</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <f>A6*B6*C6</f>
-        <v>612000</v>
-      </c>
-      <c r="F6" s="21">
-        <f>E6/$E$8</f>
-        <v>0.25954198473282442</v>
-      </c>
-      <c r="G6" s="21">
-        <f>$E$19*F6</f>
-        <v>38.931297709923662</v>
-      </c>
-      <c r="H6" s="22">
-        <f>G6/C6</f>
-        <v>1.9465648854961833E-2</v>
-      </c>
-      <c r="I6" s="22">
-        <f>H6+0.003</f>
-        <v>2.2465648854961832E-2</v>
-      </c>
-      <c r="J6" s="24">
-        <f>I6+0.007</f>
-        <v>2.9465648854961831E-2</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="20"/>
-      <c r="Q6" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>A7*B7*C7</f>
-        <v>648000</v>
-      </c>
-      <c r="F7" s="21">
-        <f>E7/$E$8</f>
-        <v>0.27480916030534353</v>
-      </c>
-      <c r="G7" s="21">
-        <f>$E$19*F7</f>
-        <v>41.221374045801525</v>
-      </c>
-      <c r="H7" s="22">
-        <f>G7/C7</f>
-        <v>2.0610687022900764E-2</v>
-      </c>
-      <c r="I7" s="22">
-        <f>H7+0.003</f>
-        <v>2.3610687022900763E-2</v>
-      </c>
-      <c r="J7" s="24">
-        <f>I7+0.007</f>
-        <v>3.0610687022900762E-2</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="20"/>
-      <c r="Q7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19">
-        <f>W8-W9</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <f>SUM(E3:E7)</f>
-        <v>2358000</v>
-      </c>
-      <c r="F8" s="21">
-        <f>SUM(F3:F7)</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="23">
-        <f>SUM(M3:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" s="19">
-        <f t="shared" ref="R8:W8" si="0">SUM(R11:R15)</f>
-        <v>168</v>
-      </c>
-      <c r="S8" s="19">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="T8" s="19">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="U8" s="19">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="V8" s="19">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="W8" s="19">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R9" s="19">
-        <f>C3/D3</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="S9" s="19">
-        <f>C4/D4</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="T9" s="19">
-        <f>C5/D5</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="U9" s="19">
-        <f>C6/D6</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="V9" s="19">
-        <f>C7/D7</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="W9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>16</v>
-      </c>
-      <c r="M10" s="2">
-        <v>17</v>
-      </c>
-      <c r="N10" s="2">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2">
-        <v>24</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R10" s="2">
-        <v>14</v>
-      </c>
-      <c r="S10" s="2">
-        <v>15</v>
-      </c>
-      <c r="T10" s="2">
-        <v>16</v>
-      </c>
-      <c r="U10" s="2">
-        <v>17</v>
-      </c>
-      <c r="V10" s="2">
-        <v>18</v>
-      </c>
-      <c r="W10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>SUM(B11:H11)</f>
-        <v>98</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>14</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="P11" s="2">
-        <v>12</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ref="R11:W11" si="1">$P$11*J11</f>
-        <v>84</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>SUM(B12:H12)</f>
-        <v>96</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="P12" s="2">
-        <v>42</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:W12" si="2">$P$12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>SUM(B13:H13)</f>
-        <v>96</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="P13" s="2">
-        <v>28</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13:W13" si="3">$P$13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>SUM(B14:H14)</f>
-        <v>98</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="P14" s="2">
-        <v>84</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ref="R14:W14" si="4">$P$14*J14</f>
-        <v>84</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>336</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>SUM(B15:H15)</f>
-        <v>96</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>24</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>84</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ref="R15:W15" si="5">$P$15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>336</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>98</v>
-      </c>
-      <c r="B19">
-        <v>118</v>
-      </c>
-      <c r="C19">
-        <v>0.6</v>
-      </c>
-      <c r="D19">
-        <f>SUM(P11:P15)</f>
-        <v>250</v>
-      </c>
-      <c r="E19">
-        <f>D19*C19</f>
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
     <col min="15" max="15" width="5.28515625" customWidth="1"/>
     <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="6.140625" bestFit="1" customWidth="1"/>
@@ -18213,10 +21623,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
@@ -18282,30 +21692,30 @@
       </c>
       <c r="G3" s="21">
         <f>$E$19*F3</f>
-        <v>19.302045801526717</v>
+        <v>21.049213740458018</v>
       </c>
       <c r="H3" s="22">
         <f>G3/C3</f>
-        <v>1.9302045801526717E-2</v>
+        <v>2.1049213740458018E-2</v>
       </c>
       <c r="I3" s="22">
         <f>H3+0.003</f>
-        <v>2.2302045801526716E-2</v>
+        <v>2.4049213740458018E-2</v>
       </c>
       <c r="J3" s="24">
         <f>I3+0.008</f>
-        <v>3.0302045801526716E-2</v>
+        <v>3.2049213740458021E-2</v>
       </c>
       <c r="K3" s="22">
         <v>2.7E-2</v>
       </c>
       <c r="L3" s="22">
         <f>K3-J3</f>
-        <v>-3.3020458015267165E-3</v>
+        <v>-5.0492137404580216E-3</v>
       </c>
       <c r="M3" s="20">
         <f>L3*C3</f>
-        <v>-3.3020458015267167</v>
+        <v>-5.049213740458022</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -18331,30 +21741,30 @@
       </c>
       <c r="G4" s="21">
         <f>$E$19*F4</f>
-        <v>20.680763358778623</v>
+        <v>22.552729007633591</v>
       </c>
       <c r="H4" s="22">
         <f>G4/C4</f>
-        <v>2.0680763358778623E-2</v>
+        <v>2.2552729007633592E-2</v>
       </c>
       <c r="I4" s="22">
         <f>H4+0.003</f>
-        <v>2.3680763358778622E-2</v>
+        <v>2.5552729007633591E-2</v>
       </c>
       <c r="J4" s="24">
         <f>I4+0.008</f>
-        <v>3.1680763358778619E-2</v>
+        <v>3.3552729007633592E-2</v>
       </c>
       <c r="K4" s="22">
         <v>2.9700000000000001E-2</v>
       </c>
       <c r="L4" s="22">
         <f>K4-J4</f>
-        <v>-1.9807633587786179E-3</v>
+        <v>-3.8527290076335909E-3</v>
       </c>
       <c r="M4" s="20">
         <f>L4*C4</f>
-        <v>-1.980763358778618</v>
+        <v>-3.8527290076335907</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -18380,30 +21790,30 @@
       </c>
       <c r="G5" s="21">
         <f>$E$19*F5</f>
-        <v>44.118961832061068</v>
+        <v>48.112488549618327</v>
       </c>
       <c r="H5" s="22">
         <f>G5/C5</f>
-        <v>2.2059480916030536E-2</v>
+        <v>2.4056244274809162E-2</v>
       </c>
       <c r="I5" s="22">
         <f>H5+0.003</f>
-        <v>2.5059480916030535E-2</v>
+        <v>2.7056244274809162E-2</v>
       </c>
       <c r="J5" s="24">
         <f>I5+0.008</f>
-        <v>3.3059480916030531E-2</v>
+        <v>3.5056244274809162E-2</v>
       </c>
       <c r="K5" s="22">
         <v>2.98E-2</v>
       </c>
       <c r="L5" s="22">
         <f>K5-J5</f>
-        <v>-3.2594809160305313E-3</v>
+        <v>-5.2562442748091617E-3</v>
       </c>
       <c r="M5" s="20">
         <f>L5*C5</f>
-        <v>-6.5189618320610627</v>
+        <v>-10.512488549618324</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -18429,30 +21839,30 @@
       </c>
       <c r="G6" s="21">
         <f>$E$19*F6</f>
-        <v>46.876396946564881</v>
+        <v>51.119519083969472</v>
       </c>
       <c r="H6" s="22">
         <f>G6/C6</f>
-        <v>2.3438198473282441E-2</v>
+        <v>2.5559759541984736E-2</v>
       </c>
       <c r="I6" s="22">
         <f>H6+0.003</f>
-        <v>2.6438198473282441E-2</v>
+        <v>2.8559759541984735E-2</v>
       </c>
       <c r="J6" s="24">
         <f>I6+0.008</f>
-        <v>3.4438198473282444E-2</v>
+        <v>3.6559759541984732E-2</v>
       </c>
       <c r="K6" s="22">
         <v>3.3399999999999999E-2</v>
       </c>
       <c r="L6" s="22">
         <f>K6-J6</f>
-        <v>-1.0381984732824451E-3</v>
+        <v>-3.159759541984733E-3</v>
       </c>
       <c r="M6" s="20">
         <f>L6*C6</f>
-        <v>-2.0763969465648904</v>
+        <v>-6.3195190839694657</v>
       </c>
       <c r="Q6" s="18" t="s">
         <v>9</v>
@@ -18481,30 +21891,30 @@
       </c>
       <c r="G7" s="21">
         <f>$E$19*F7</f>
-        <v>49.633832061068702</v>
+        <v>54.126549618320617</v>
       </c>
       <c r="H7" s="22">
         <f>G7/C7</f>
-        <v>2.4816916030534351E-2</v>
+        <v>2.706327480916031E-2</v>
       </c>
       <c r="I7" s="22">
         <f>H7+0.003</f>
-        <v>2.781691603053435E-2</v>
+        <v>3.0063274809160309E-2</v>
       </c>
       <c r="J7" s="24">
         <f>I7+0.008</f>
-        <v>3.581691603053435E-2</v>
+        <v>3.8063274809160309E-2</v>
       </c>
       <c r="K7" s="22">
         <v>3.3399999999999999E-2</v>
       </c>
       <c r="L7" s="22">
         <f>K7-J7</f>
-        <v>-2.4169160305343509E-3</v>
+        <v>-4.6632748091603102E-3</v>
       </c>
       <c r="M7" s="20">
         <f>L7*C7</f>
-        <v>-4.8338320610687022</v>
+        <v>-9.3265496183206196</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>41</v>
@@ -18545,7 +21955,7 @@
       </c>
       <c r="M8" s="23">
         <f>SUM(M3:M7)</f>
-        <v>-18.711999999999989</v>
+        <v>-35.060500000000026</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>47</v>
@@ -18674,37 +22084,55 @@
       <c r="I11">
         <v>17</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="31">
+        <f>COUNTIF($B11:$I11,J$10)</f>
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="K11" s="31">
+        <f t="shared" ref="K11:O15" si="2">COUNTIF($B11:$I11,K$10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
         <v>14</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11:W11" si="2">$P$11*J11</f>
+        <f t="shared" ref="R11:W11" si="3">$P$11*J11</f>
         <v>98</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -18734,37 +22162,55 @@
       <c r="H12">
         <v>18</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="31">
+        <f t="shared" ref="J12:J15" si="4">COUNTIF($B12:$I12,J$10)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N12">
+      <c r="L12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="2"/>
         <v>2</v>
+      </c>
+      <c r="O12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
         <v>29</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:W12" si="3">$P$12*J12</f>
+        <f t="shared" ref="R12:W12" si="5">$P$12*J12</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18794,40 +22240,55 @@
       <c r="H13">
         <v>18</v>
       </c>
-      <c r="L13">
+      <c r="J13" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="31">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="31">
+        <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="O13" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>49</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:W13" si="4">$P$13*J13</f>
+        <f t="shared" ref="R13:W13" si="6">$P$13*J13</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="W13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18857,40 +22318,55 @@
       <c r="H14">
         <v>14</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="31">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="K14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="31">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
+      </c>
+      <c r="N14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>45</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:W14" si="5">$P$14*J14</f>
+        <f t="shared" ref="R14:W14" si="7">$P$14*J14</f>
         <v>45</v>
       </c>
       <c r="S14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="U14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="V14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18917,49 +22393,87 @@
       <c r="G15">
         <v>24</v>
       </c>
-      <c r="N15">
+      <c r="J15" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="31">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>36</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:W15" si="6">$P$15*J15</f>
+        <f t="shared" ref="R15:W15" si="8">$P$15*J15</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="W15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f>R10</f>
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:V17" si="9">S10</f>
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -18972,8 +22486,32 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f>P11</f>
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <f>R11*7</f>
+        <v>686</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:V18" si="10">S11*7</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>115</v>
       </c>
@@ -18981,7 +22519,7 @@
         <v>126</v>
       </c>
       <c r="C19">
-        <v>1.044</v>
+        <v>1.1385000000000001</v>
       </c>
       <c r="D19">
         <f>SUM(P11:P15)</f>
@@ -18989,824 +22527,131 @@
       </c>
       <c r="E19">
         <f>D19*C19</f>
-        <v>180.61199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <f>A3*B3*C3</f>
-        <v>252000</v>
-      </c>
-      <c r="F3" s="21">
-        <f>E3/$E$8</f>
-        <v>0.10687022900763359</v>
-      </c>
-      <c r="G3" s="21">
-        <f>$E$19*F3</f>
-        <v>21.049213740458018</v>
-      </c>
-      <c r="H3" s="22">
-        <f>G3/C3</f>
-        <v>2.1049213740458018E-2</v>
-      </c>
-      <c r="I3" s="22">
-        <f>H3+0.003</f>
-        <v>2.4049213740458018E-2</v>
-      </c>
-      <c r="J3" s="24">
-        <f>I3+0.008</f>
-        <v>3.2049213740458021E-2</v>
-      </c>
-      <c r="K3" s="22">
-        <v>2.7E-2</v>
-      </c>
-      <c r="L3" s="22">
-        <f>K3-J3</f>
-        <v>-5.0492137404580216E-3</v>
-      </c>
-      <c r="M3" s="20">
-        <f>L3*C3</f>
-        <v>-5.049213740458022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <f>A4*B4*C4</f>
-        <v>270000</v>
-      </c>
-      <c r="F4" s="21">
-        <f>E4/$E$8</f>
-        <v>0.11450381679389313</v>
-      </c>
-      <c r="G4" s="21">
-        <f>$E$19*F4</f>
-        <v>22.552729007633591</v>
-      </c>
-      <c r="H4" s="22">
-        <f>G4/C4</f>
-        <v>2.2552729007633592E-2</v>
-      </c>
-      <c r="I4" s="22">
-        <f>H4+0.003</f>
-        <v>2.5552729007633591E-2</v>
-      </c>
-      <c r="J4" s="24">
-        <f>I4+0.008</f>
-        <v>3.3552729007633592E-2</v>
-      </c>
-      <c r="K4" s="22">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="L4" s="22">
-        <f>K4-J4</f>
-        <v>-3.8527290076335909E-3</v>
-      </c>
-      <c r="M4" s="20">
-        <f>L4*C4</f>
-        <v>-3.8527290076335907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <f>A5*B5*C5</f>
-        <v>576000</v>
-      </c>
-      <c r="F5" s="21">
-        <f>E5/$E$8</f>
-        <v>0.24427480916030533</v>
-      </c>
-      <c r="G5" s="21">
-        <f>$E$19*F5</f>
-        <v>48.112488549618327</v>
-      </c>
-      <c r="H5" s="22">
-        <f>G5/C5</f>
-        <v>2.4056244274809162E-2</v>
-      </c>
-      <c r="I5" s="22">
-        <f>H5+0.003</f>
-        <v>2.7056244274809162E-2</v>
-      </c>
-      <c r="J5" s="24">
-        <f>I5+0.008</f>
-        <v>3.5056244274809162E-2</v>
-      </c>
-      <c r="K5" s="22">
-        <v>2.98E-2</v>
-      </c>
-      <c r="L5" s="22">
-        <f>K5-J5</f>
-        <v>-5.2562442748091617E-3</v>
-      </c>
-      <c r="M5" s="20">
-        <f>L5*C5</f>
-        <v>-10.512488549618324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <f>A6*B6*C6</f>
-        <v>612000</v>
-      </c>
-      <c r="F6" s="21">
-        <f>E6/$E$8</f>
-        <v>0.25954198473282442</v>
-      </c>
-      <c r="G6" s="21">
-        <f>$E$19*F6</f>
-        <v>51.119519083969472</v>
-      </c>
-      <c r="H6" s="22">
-        <f>G6/C6</f>
-        <v>2.5559759541984736E-2</v>
-      </c>
-      <c r="I6" s="22">
-        <f>H6+0.003</f>
-        <v>2.8559759541984735E-2</v>
-      </c>
-      <c r="J6" s="24">
-        <f>I6+0.008</f>
-        <v>3.6559759541984732E-2</v>
-      </c>
-      <c r="K6" s="22">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="L6" s="22">
-        <f>K6-J6</f>
-        <v>-3.159759541984733E-3</v>
-      </c>
-      <c r="M6" s="20">
-        <f>L6*C6</f>
-        <v>-6.3195190839694657</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <f>A7*B7*C7</f>
-        <v>648000</v>
-      </c>
-      <c r="F7" s="21">
-        <f>E7/$E$8</f>
-        <v>0.27480916030534353</v>
-      </c>
-      <c r="G7" s="21">
-        <f>$E$19*F7</f>
-        <v>54.126549618320617</v>
-      </c>
-      <c r="H7" s="22">
-        <f>G7/C7</f>
-        <v>2.706327480916031E-2</v>
-      </c>
-      <c r="I7" s="22">
-        <f>H7+0.003</f>
-        <v>3.0063274809160309E-2</v>
-      </c>
-      <c r="J7" s="24">
-        <f>I7+0.008</f>
-        <v>3.8063274809160309E-2</v>
-      </c>
-      <c r="K7" s="22">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="L7" s="22">
-        <f>K7-J7</f>
-        <v>-4.6632748091603102E-3</v>
-      </c>
-      <c r="M7" s="20">
-        <f>L7*C7</f>
-        <v>-9.3265496183206196</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="19">
-        <f t="shared" ref="R7:W7" si="0">R8-R9</f>
-        <v>0.1428571428571388</v>
-      </c>
-      <c r="S7" s="19">
-        <f t="shared" si="0"/>
-        <v>2.1428571428571388</v>
-      </c>
-      <c r="T7" s="19">
-        <f t="shared" si="0"/>
-        <v>4.2857142857142776</v>
-      </c>
-      <c r="U7" s="19">
-        <f t="shared" si="0"/>
-        <v>2.2857142857142776</v>
-      </c>
-      <c r="V7" s="19">
-        <f t="shared" si="0"/>
-        <v>1.2857142857142776</v>
-      </c>
-      <c r="W7" s="19">
-        <f t="shared" si="0"/>
+        <v>196.96050000000002</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P22" si="11">P12</f>
+        <v>29</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:V22" si="12">R12*7</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>1015</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="12"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>1715</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="12"/>
+        <v>1575</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <f>SUM(E3:E7)</f>
-        <v>2358000</v>
-      </c>
-      <c r="F8" s="21">
-        <f>SUM(F3:F7)</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="23">
-        <f>SUM(M3:M7)</f>
-        <v>-35.060500000000026</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="19">
-        <f t="shared" ref="R8:W8" si="1">SUM(R11:R15)</f>
-        <v>143</v>
-      </c>
-      <c r="S8" s="19">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="T8" s="19">
-        <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="U8" s="19">
-        <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="V8" s="19">
-        <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-      <c r="W8" s="19">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="Q9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="19">
-        <f>C3/D3</f>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="S9" s="19">
-        <f>C4/D4</f>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="T9" s="19">
-        <f>C5/D5</f>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="U9" s="19">
-        <f>C6/D6</f>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="V9" s="19">
-        <f>C7/D7</f>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="W9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>16</v>
-      </c>
-      <c r="M10" s="2">
-        <v>17</v>
-      </c>
-      <c r="N10" s="2">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2">
-        <v>24</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="2">
-        <v>14</v>
-      </c>
-      <c r="S10" s="2">
-        <v>15</v>
-      </c>
-      <c r="T10" s="2">
-        <v>16</v>
-      </c>
-      <c r="U10" s="2">
-        <v>17</v>
-      </c>
-      <c r="V10" s="2">
-        <v>18</v>
-      </c>
-      <c r="W10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>SUM(B11:I11)</f>
-        <v>115</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>14</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>14</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ref="R11:W11" si="2">$P$11*J11</f>
-        <v>98</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>SUM(B12:I12)</f>
-        <v>111</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="P12" s="2">
-        <v>29</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:W12" si="3">$P$12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>SUM(B13:I13)</f>
-        <v>115</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>17</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>49</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13:W13" si="4">$P$13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>SUM(B14:I14)</f>
-        <v>115</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="P14" s="2">
-        <v>45</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ref="R14:W14" si="5">$P$14*J14</f>
-        <v>45</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>225</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>SUM(B15:I15)</f>
-        <v>114</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>24</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>36</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ref="R15:W15" si="6">$P$15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>115</v>
-      </c>
-      <c r="B19">
-        <v>126</v>
-      </c>
-      <c r="C19">
-        <v>1.1385000000000001</v>
-      </c>
-      <c r="D19">
-        <f>SUM(P11:P15)</f>
-        <v>173</v>
-      </c>
-      <c r="E19">
-        <f>D19*C19</f>
-        <v>196.96050000000002</v>
+      <c r="R22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="12"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f>SUM(R18:R22)</f>
+        <v>1001</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:V23" si="13">SUM(S18:S22)</f>
+        <v>1015</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="13"/>
+        <v>2030</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>2016</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="13"/>
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
@@ -19819,10 +22664,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19840,11 +22685,11 @@
     <col min="14" max="14" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="D1" t="s">
         <v>24</v>
       </c>
@@ -19858,7 +22703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -19887,7 +22732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -19929,7 +22774,7 @@
         <v>307.67741935483872</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -19971,7 +22816,7 @@
         <v>319.52258064516127</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>SUM(C3:C4)</f>
         <v>20000</v>
@@ -20005,7 +22850,7 @@
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -20013,7 +22858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -20037,7 +22882,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>98</v>
       </c>
@@ -20071,7 +22916,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N10" s="2" t="s">
         <v>139</v>
       </c>
@@ -20084,7 +22929,7 @@
         <v>1666.6666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
@@ -20110,7 +22955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>SUM(B12:H12)</f>
         <v>97</v>
@@ -20155,7 +23000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SUM(B13:H13)</f>
         <v>96</v>
@@ -20197,10 +23042,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M14">
         <f>SUM(M12:M13)</f>
         <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="O16">
+        <f>O9</f>
+        <v>1670</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:S16" si="0">P9</f>
+        <v>1668</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f>M10</f>
+        <v>0</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17">
+        <f>O10*7</f>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:S17" si="1">P10*7</f>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" ref="M18:M21" si="2">M11</f>
+        <v>Planchas</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18">
+        <f t="shared" ref="O18:S21" si="3">O11*7</f>
+        <v>105</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19">
+        <f>O12*6</f>
+        <v>10020</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>2338</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>11676</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="N22"/>
+      <c r="O22">
+        <f>SUM(O17:O21)</f>
+        <v>21791.666666666668</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:S22" si="4">SUM(P17:P21)</f>
+        <v>23454.666666666668</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>2492</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/trash/Separadores.xlsx
+++ b/trash/Separadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\palnt-backend\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C44776-4C0B-45C2-B85A-F8463CFB60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B11F9-7264-4384-BAF1-FE4FF2472A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gala" sheetId="3" r:id="rId1"/>
@@ -14098,7 +14098,7 @@
   <dimension ref="B1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18154,8 +18154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20475,7 +20475,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trash/Separadores.xlsx
+++ b/trash/Separadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\plant-backend\trash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{345EDEEF-9E96-4DFB-9DCF-35F63CC6DA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FDD4A0-1783-4F42-BBB8-66A34AB6A059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="25" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gala" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,95 @@
     <sheet name="Monte-C-125" sheetId="34" r:id="rId31"/>
     <sheet name="Monte-C-150" sheetId="35" r:id="rId32"/>
     <sheet name="Liliana-Cola" sheetId="36" r:id="rId33"/>
+    <sheet name="мой расчет" sheetId="37" r:id="rId34"/>
+    <sheet name="мой расчет (2)" sheetId="38" r:id="rId35"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="33" hidden="1">'мой расчет'!$D$12:$K$12</definedName>
+    <definedName name="solver_adj" localSheetId="34" hidden="1">'мой расчет (2)'!$D$12:$K$12</definedName>
+    <definedName name="solver_cvg" localSheetId="33" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="34" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="33" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="34" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="33" hidden="1">'мой расчет'!$B$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="34" hidden="1">'мой расчет (2)'!$B$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="33" hidden="1">'мой расчет'!$B$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="34" hidden="1">'мой расчет (2)'!$B$21</definedName>
+    <definedName name="solver_lhs3" localSheetId="33" hidden="1">'мой расчет'!$B$21</definedName>
+    <definedName name="solver_lhs3" localSheetId="34" hidden="1">'мой расчет (2)'!$B$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="33" hidden="1">'мой расчет'!$D$12:$K$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="34" hidden="1">'мой расчет (2)'!$D$12:$K$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="33" hidden="1">'мой расчет'!$D$12:$K$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="34" hidden="1">'мой расчет (2)'!$D$12:$K$12</definedName>
+    <definedName name="solver_mip" localSheetId="33" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="34" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="33" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="34" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="33" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="34" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="33" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="33" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="34" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="33" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="34" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="33" hidden="1">'мой расчет'!$D$25</definedName>
+    <definedName name="solver_opt" localSheetId="34" hidden="1">'мой расчет (2)'!$C$15</definedName>
+    <definedName name="solver_pre" localSheetId="33" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="34" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="33" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="34" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="33" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="34" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="33" hidden="1">'мой расчет'!$D$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="34" hidden="1">'мой расчет (2)'!$D$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="33" hidden="1">'мой расчет'!$D$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="34" hidden="1">'мой расчет (2)'!$D$21</definedName>
+    <definedName name="solver_rhs3" localSheetId="33" hidden="1">'мой расчет'!$D$21</definedName>
+    <definedName name="solver_rhs3" localSheetId="34" hidden="1">'мой расчет (2)'!$D$22</definedName>
+    <definedName name="solver_rhs4" localSheetId="33" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs4" localSheetId="34" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs5" localSheetId="33" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="34" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="33" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="33" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="34" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="33" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="34" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="33" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="33" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="34" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="33" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="34" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="33" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="34" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="33" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="34" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="33" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="34" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="33" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="34" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -93,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="269">
   <si>
     <t>Separadores</t>
   </si>
@@ -748,6 +836,159 @@
   <si>
     <t>Общая площадь листов</t>
   </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>длина заготовки, см</t>
+  </si>
+  <si>
+    <t>количество заготовок, см</t>
+  </si>
+  <si>
+    <t>Деталей в комплекте</t>
+  </si>
+  <si>
+    <t>Получено деталей</t>
+  </si>
+  <si>
+    <t>Деталь</t>
+  </si>
+  <si>
+    <t>Длина, мм</t>
+  </si>
+  <si>
+    <t>№1</t>
+  </si>
+  <si>
+    <t>№2</t>
+  </si>
+  <si>
+    <t>№3</t>
+  </si>
+  <si>
+    <t>Отходы, мм</t>
+  </si>
+  <si>
+    <t>Количество заготовок</t>
+  </si>
+  <si>
+    <t>Варианты раскроя</t>
+  </si>
+  <si>
+    <t>х1</t>
+  </si>
+  <si>
+    <t>х2</t>
+  </si>
+  <si>
+    <t>х3</t>
+  </si>
+  <si>
+    <t>х4</t>
+  </si>
+  <si>
+    <t>х5</t>
+  </si>
+  <si>
+    <t>х6</t>
+  </si>
+  <si>
+    <t>х7</t>
+  </si>
+  <si>
+    <t>х8</t>
+  </si>
+  <si>
+    <t>х9</t>
+  </si>
+  <si>
+    <t>х10</t>
+  </si>
+  <si>
+    <t>х11</t>
+  </si>
+  <si>
+    <t>х12</t>
+  </si>
+  <si>
+    <t>х13</t>
+  </si>
+  <si>
+    <t>х14</t>
+  </si>
+  <si>
+    <t>х15</t>
+  </si>
+  <si>
+    <t>х16</t>
+  </si>
+  <si>
+    <t>х17</t>
+  </si>
+  <si>
+    <t>х18</t>
+  </si>
+  <si>
+    <t>х19</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>общая длина отходов, мм</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>общая доля отходов</t>
+  </si>
+  <si>
+    <t>W, %</t>
+  </si>
+  <si>
+    <t>ограничение по комплектности (Детали №1 и №2)</t>
+  </si>
+  <si>
+    <t>ограничение по комплектности (Детали №2 и №3)</t>
+  </si>
+  <si>
+    <t>ограничение по общему числу заготовок</t>
+  </si>
+  <si>
+    <t>Полосок в заказе</t>
+  </si>
+  <si>
+    <t>длина заказа</t>
+  </si>
+  <si>
+    <t>длина материала</t>
+  </si>
+  <si>
+    <t>Общая доля отходов</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
 </sst>
 </file>
 
@@ -839,7 +1080,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,8 +1153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1140,11 +1387,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1368,21 +1993,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,15 +2031,170 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3619,30 +4402,30 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="F9" s="110">
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="F9" s="109">
         <v>13</v>
       </c>
-      <c r="G9" s="110"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="110">
+      <c r="J9" s="109">
         <v>14</v>
       </c>
-      <c r="K9" s="110"/>
+      <c r="K9" s="109"/>
       <c r="L9" s="2"/>
-      <c r="N9" s="110">
-        <v>16</v>
-      </c>
-      <c r="O9" s="110"/>
+      <c r="N9" s="109">
+        <v>16</v>
+      </c>
+      <c r="O9" s="109"/>
       <c r="P9" s="2"/>
-      <c r="R9" s="110">
+      <c r="R9" s="109">
         <v>18</v>
       </c>
-      <c r="S9" s="110"/>
+      <c r="S9" s="109"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3657,27 +4440,27 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="109">
+      <c r="H10" s="110">
         <v>16</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="109">
+      <c r="L10" s="110">
         <v>16</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="109">
+      <c r="P10" s="110">
         <v>16</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="109">
+      <c r="T10" s="110">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="108" t="s">
         <v>61</v>
       </c>
       <c r="B11">
@@ -3691,19 +4474,19 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="109"/>
+      <c r="H11" s="110"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="109"/>
+      <c r="L11" s="110"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="109"/>
+      <c r="P11" s="110"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="109"/>
+      <c r="T11" s="110"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111"/>
+      <c r="A12" s="108"/>
       <c r="B12">
         <v>14</v>
       </c>
@@ -3715,19 +4498,19 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="109"/>
+      <c r="H12" s="110"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="109"/>
+      <c r="L12" s="110"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="109"/>
+      <c r="P12" s="110"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="109"/>
+      <c r="T12" s="110"/>
     </row>
     <row r="13" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="111"/>
+      <c r="A13" s="108"/>
       <c r="B13">
         <v>16</v>
       </c>
@@ -3739,19 +4522,19 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="109"/>
+      <c r="H13" s="110"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="109"/>
+      <c r="L13" s="110"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="109"/>
+      <c r="P13" s="110"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="109"/>
+      <c r="T13" s="110"/>
     </row>
     <row r="14" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="111"/>
+      <c r="A14" s="108"/>
       <c r="B14">
         <v>18</v>
       </c>
@@ -3763,16 +4546,16 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="109"/>
+      <c r="H14" s="110"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="109"/>
+      <c r="L14" s="110"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="109"/>
+      <c r="P14" s="110"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="109"/>
+      <c r="T14" s="110"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -3807,29 +4590,29 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="110">
+      <c r="F17" s="109">
         <v>14</v>
       </c>
-      <c r="G17" s="110"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="110">
-        <v>16</v>
-      </c>
-      <c r="K17" s="110"/>
+      <c r="J17" s="109">
+        <v>16</v>
+      </c>
+      <c r="K17" s="109"/>
       <c r="L17" s="2"/>
-      <c r="N17" s="110">
+      <c r="N17" s="109">
         <v>18</v>
       </c>
-      <c r="O17" s="110"/>
+      <c r="O17" s="109"/>
       <c r="P17" s="2"/>
-      <c r="R17" s="110">
+      <c r="R17" s="109">
         <v>20</v>
       </c>
-      <c r="S17" s="110"/>
+      <c r="S17" s="109"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="108" t="s">
         <v>62</v>
       </c>
       <c r="B18">
@@ -3843,27 +4626,27 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="109">
+      <c r="H18" s="110">
         <v>16</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="109">
+      <c r="L18" s="110">
         <v>16</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="109">
+      <c r="P18" s="110">
         <v>16</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="109">
+      <c r="T18" s="110">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="111"/>
+      <c r="A19" s="108"/>
       <c r="B19">
         <v>16</v>
       </c>
@@ -3875,19 +4658,19 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="109"/>
+      <c r="H19" s="110"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="109"/>
+      <c r="L19" s="110"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="109"/>
+      <c r="P19" s="110"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="109"/>
+      <c r="T19" s="110"/>
     </row>
     <row r="20" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="111"/>
+      <c r="A20" s="108"/>
       <c r="B20">
         <v>18</v>
       </c>
@@ -3899,19 +4682,19 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="109"/>
+      <c r="H20" s="110"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="109"/>
+      <c r="L20" s="110"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="109"/>
+      <c r="P20" s="110"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="109"/>
+      <c r="T20" s="110"/>
     </row>
     <row r="21" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="111"/>
+      <c r="A21" s="108"/>
       <c r="B21">
         <v>20</v>
       </c>
@@ -3923,30 +4706,30 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="109"/>
+      <c r="H21" s="110"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="109"/>
+      <c r="L21" s="110"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="109"/>
+      <c r="P21" s="110"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="109"/>
+      <c r="T21" s="110"/>
     </row>
     <row r="22" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="109"/>
+      <c r="H22" s="110"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="109"/>
+      <c r="L22" s="110"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="109"/>
+      <c r="P22" s="110"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="109"/>
+      <c r="T22" s="110"/>
     </row>
     <row r="23" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3954,11 +4737,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
       <c r="F25" t="s">
         <v>83</v>
       </c>
@@ -4873,18 +5656,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="T18:T22"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T10:T14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="P10:P14"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="L10:L14"/>
     <mergeCell ref="N9:O9"/>
@@ -4893,6 +5664,18 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="T18:T22"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="P10:P14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H10:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8007,7 +8790,7 @@
     <row r="5" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <v>24</v>
       </c>
     </row>
@@ -8030,7 +8813,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="109"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7">
@@ -8051,7 +8834,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="109"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -8059,7 +8842,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="109"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9">
@@ -8073,12 +8856,12 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="109"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
@@ -8089,7 +8872,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
@@ -18120,8 +18903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18145,26 +18928,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="116"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -18609,26 +19392,26 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="L13" s="114" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="L13" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="83" t="s">
@@ -20204,13 +20987,13 @@
       <c r="AA63" s="34"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="120" t="s">
+      <c r="A64" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
       <c r="V64" s="34"/>
       <c r="W64" s="34"/>
       <c r="X64" s="34"/>
@@ -20439,7 +21222,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20828,11 +21611,11 @@
         <v>47</v>
       </c>
       <c r="R8" s="19">
-        <f t="shared" ref="R8:W8" si="1">SUM(R11:R15)</f>
+        <f>SUM(R11:R15)</f>
         <v>143</v>
       </c>
       <c r="S8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R8:W8" si="1">SUM(S11:S15)</f>
         <v>145</v>
       </c>
       <c r="T8" s="19">
@@ -22641,10 +23424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="111"/>
       <c r="D1" t="s">
         <v>24</v>
       </c>
@@ -23190,6 +23973,1407 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45B1745-EF3F-46AD-B2C8-7A5F495F93E4}">
+  <dimension ref="B1:AB26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B2" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="141">
+        <v>1600</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="142">
+        <f>SUM(D12:K12)</f>
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="W4">
+        <f>SUM(W7:W9)</f>
+        <v>312</v>
+      </c>
+      <c r="X4">
+        <f>SUM(X7:X9)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="162" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="X5" s="134" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="147">
+        <v>1</v>
+      </c>
+      <c r="E6" s="148">
+        <v>2</v>
+      </c>
+      <c r="F6" s="148">
+        <v>3</v>
+      </c>
+      <c r="G6" s="148">
+        <v>4</v>
+      </c>
+      <c r="H6" s="148">
+        <v>5</v>
+      </c>
+      <c r="I6" s="148">
+        <v>6</v>
+      </c>
+      <c r="J6" s="148">
+        <v>7</v>
+      </c>
+      <c r="K6" s="148">
+        <v>8</v>
+      </c>
+      <c r="L6" s="148">
+        <v>9</v>
+      </c>
+      <c r="M6" s="148">
+        <v>10</v>
+      </c>
+      <c r="N6" s="148">
+        <v>11</v>
+      </c>
+      <c r="O6" s="148">
+        <v>12</v>
+      </c>
+      <c r="P6" s="148">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="148">
+        <v>14</v>
+      </c>
+      <c r="R6" s="148">
+        <v>15</v>
+      </c>
+      <c r="S6" s="148">
+        <v>16</v>
+      </c>
+      <c r="T6" s="148">
+        <v>17</v>
+      </c>
+      <c r="U6" s="148">
+        <v>18</v>
+      </c>
+      <c r="V6" s="148">
+        <v>19</v>
+      </c>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="140" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="141">
+        <v>600</v>
+      </c>
+      <c r="D7" s="144">
+        <v>2</v>
+      </c>
+      <c r="E7" s="145">
+        <v>1</v>
+      </c>
+      <c r="F7" s="145">
+        <v>1</v>
+      </c>
+      <c r="G7" s="145">
+        <v>1</v>
+      </c>
+      <c r="H7" s="145">
+        <v>0</v>
+      </c>
+      <c r="I7" s="145">
+        <v>0</v>
+      </c>
+      <c r="J7" s="145">
+        <v>0</v>
+      </c>
+      <c r="K7" s="145">
+        <v>0</v>
+      </c>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="149">
+        <v>104</v>
+      </c>
+      <c r="X7" s="176">
+        <f>SUMPRODUCT(D7:V7,$D$12:$V$12)</f>
+        <v>104</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="143">
+        <v>450</v>
+      </c>
+      <c r="D8" s="150">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>3</v>
+      </c>
+      <c r="I8" s="25">
+        <v>2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="151">
+        <v>156</v>
+      </c>
+      <c r="X8" s="177">
+        <f>SUMPRODUCT(D8:V8,$D$12:$V$12)</f>
+        <v>156</v>
+      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+    </row>
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="142">
+        <v>340</v>
+      </c>
+      <c r="D9" s="152">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>2</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>2</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3</v>
+      </c>
+      <c r="K9" s="37">
+        <v>4</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="153">
+        <v>52</v>
+      </c>
+      <c r="X9" s="178">
+        <f>SUMPRODUCT(D9:V9,$D$12:$V$12)</f>
+        <v>52</v>
+      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="156" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="157"/>
+      <c r="D10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,D7:D9))</f>
+        <v>60</v>
+      </c>
+      <c r="E10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,E7:E9))</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,F7:F9))</f>
+        <v>210</v>
+      </c>
+      <c r="G10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,G7:G9))</f>
+        <v>320</v>
+      </c>
+      <c r="H10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,H7:H9))</f>
+        <v>250</v>
+      </c>
+      <c r="I10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,I7:I9))</f>
+        <v>20</v>
+      </c>
+      <c r="J10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,J7:J9))</f>
+        <v>130</v>
+      </c>
+      <c r="K10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,K7:K9))</f>
+        <v>240</v>
+      </c>
+      <c r="L10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,L7:L9))</f>
+        <v>1600</v>
+      </c>
+      <c r="M10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,M7:M9))</f>
+        <v>1600</v>
+      </c>
+      <c r="N10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,N7:N9))</f>
+        <v>1600</v>
+      </c>
+      <c r="O10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,O7:O9))</f>
+        <v>1600</v>
+      </c>
+      <c r="P10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,P7:P9))</f>
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,Q7:Q9))</f>
+        <v>1600</v>
+      </c>
+      <c r="R10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,R7:R9))</f>
+        <v>1600</v>
+      </c>
+      <c r="S10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,S7:S9))</f>
+        <v>1600</v>
+      </c>
+      <c r="T10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,T7:T9))</f>
+        <v>1600</v>
+      </c>
+      <c r="U10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,U7:U9))</f>
+        <v>1600</v>
+      </c>
+      <c r="V10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,V7:V9))</f>
+        <v>1600</v>
+      </c>
+      <c r="W10" s="155"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="19"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="159"/>
+      <c r="D11" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="145" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="145" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" s="145" t="s">
+        <v>241</v>
+      </c>
+      <c r="N11" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="O11" s="145" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" s="145" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q11" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="R11" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="S11" s="145" t="s">
+        <v>247</v>
+      </c>
+      <c r="T11" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="U11" s="145" t="s">
+        <v>249</v>
+      </c>
+      <c r="V11" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="W11" s="149"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="160"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="165">
+        <v>21</v>
+      </c>
+      <c r="E12" s="166">
+        <v>61</v>
+      </c>
+      <c r="F12" s="166">
+        <v>1</v>
+      </c>
+      <c r="G12" s="166">
+        <v>0</v>
+      </c>
+      <c r="H12" s="166">
+        <v>1</v>
+      </c>
+      <c r="I12" s="166">
+        <v>15</v>
+      </c>
+      <c r="J12" s="166">
+        <v>0</v>
+      </c>
+      <c r="K12" s="166">
+        <v>0</v>
+      </c>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="168">
+        <f>SUMPRODUCT(D10:V10*D12:V12)</f>
+        <v>8120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="169">
+        <f>C15/(C2*C3)</f>
+        <v>5.126262626262626E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="182">
+        <v>1600</v>
+      </c>
+      <c r="W16" s="183">
+        <v>600</v>
+      </c>
+      <c r="X16" s="128">
+        <f>$K$16-W16</f>
+        <v>1000</v>
+      </c>
+      <c r="Y16" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z16" s="181">
+        <v>600</v>
+      </c>
+      <c r="AA16" s="127"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="W17" s="184">
+        <v>600</v>
+      </c>
+      <c r="X17" s="31">
+        <f>X16-W17</f>
+        <v>400</v>
+      </c>
+      <c r="Y17" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z17" s="181">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="181">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="W18" s="186">
+        <v>600</v>
+      </c>
+      <c r="X18" s="132">
+        <f t="shared" ref="X18:X26" si="0">X17-W18</f>
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="133" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" s="140">
+        <f>W7</f>
+        <v>104</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="141">
+        <f>X7</f>
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="182">
+        <v>1600</v>
+      </c>
+      <c r="W19" s="183">
+        <v>600</v>
+      </c>
+      <c r="X19" s="128">
+        <f>$K$16-W19</f>
+        <v>1000</v>
+      </c>
+      <c r="Y19" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z19" s="181">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B20" s="38">
+        <f>W8</f>
+        <v>156</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="143">
+        <f>X8</f>
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>260</v>
+      </c>
+      <c r="W20" s="184">
+        <v>450</v>
+      </c>
+      <c r="X20" s="31">
+        <f>X19-W20</f>
+        <v>550</v>
+      </c>
+      <c r="Y20" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z20" s="181">
+        <v>600</v>
+      </c>
+      <c r="AA20" s="181">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="36">
+        <f>W9</f>
+        <v>52</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="142">
+        <f>X9</f>
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+      <c r="W21" s="184">
+        <v>450</v>
+      </c>
+      <c r="X21" s="31">
+        <f>X20-W21</f>
+        <v>100</v>
+      </c>
+      <c r="Y21" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z21" s="181">
+        <v>600</v>
+      </c>
+      <c r="AA21" s="181">
+        <v>450</v>
+      </c>
+      <c r="AB21" s="181">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W22" s="185">
+        <v>450</v>
+      </c>
+      <c r="X22" s="131">
+        <f t="shared" si="0"/>
+        <v>-350</v>
+      </c>
+      <c r="Y22" s="126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W23" s="104">
+        <v>600</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>-950</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="172" t="s">
+        <v>266</v>
+      </c>
+      <c r="W24" s="104">
+        <v>600</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>-1550</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="173">
+        <f>SUMPRODUCT(C7:C9,W7:W9)</f>
+        <v>150280</v>
+      </c>
+      <c r="C25" s="25">
+        <f>C3*C2</f>
+        <v>158400</v>
+      </c>
+      <c r="D25" s="179">
+        <f>C26-B26</f>
+        <v>5.1262626262626299</v>
+      </c>
+      <c r="W25" s="104">
+        <v>600</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>-2150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="174">
+        <f>B25*C26/C25</f>
+        <v>94.87373737373737</v>
+      </c>
+      <c r="C26" s="175">
+        <v>100</v>
+      </c>
+      <c r="D26" s="180"/>
+      <c r="W26" s="104">
+        <v>600</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>-2750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D5:V5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="142" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98793B5-6A68-4EF2-B59B-E439F24A5676}">
+  <dimension ref="B1:Z22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="141">
+        <v>1600</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="142">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="W4">
+        <f>SUM(W7:W9)</f>
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <f>SUM(X7:X9)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="162" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="134" t="s">
+        <v>222</v>
+      </c>
+      <c r="X5" s="134" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="147">
+        <v>1</v>
+      </c>
+      <c r="E6" s="148">
+        <v>2</v>
+      </c>
+      <c r="F6" s="148">
+        <v>3</v>
+      </c>
+      <c r="G6" s="148">
+        <v>4</v>
+      </c>
+      <c r="H6" s="148">
+        <v>5</v>
+      </c>
+      <c r="I6" s="148">
+        <v>6</v>
+      </c>
+      <c r="J6" s="148">
+        <v>7</v>
+      </c>
+      <c r="K6" s="148">
+        <v>8</v>
+      </c>
+      <c r="L6" s="148">
+        <v>9</v>
+      </c>
+      <c r="M6" s="148">
+        <v>10</v>
+      </c>
+      <c r="N6" s="148">
+        <v>11</v>
+      </c>
+      <c r="O6" s="148">
+        <v>12</v>
+      </c>
+      <c r="P6" s="148">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="148">
+        <v>14</v>
+      </c>
+      <c r="R6" s="148">
+        <v>15</v>
+      </c>
+      <c r="S6" s="148">
+        <v>16</v>
+      </c>
+      <c r="T6" s="148">
+        <v>17</v>
+      </c>
+      <c r="U6" s="148">
+        <v>18</v>
+      </c>
+      <c r="V6" s="148">
+        <v>19</v>
+      </c>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="140" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="141">
+        <v>600</v>
+      </c>
+      <c r="D7" s="144">
+        <v>2</v>
+      </c>
+      <c r="E7" s="145">
+        <v>1</v>
+      </c>
+      <c r="F7" s="145">
+        <v>1</v>
+      </c>
+      <c r="G7" s="145">
+        <v>1</v>
+      </c>
+      <c r="H7" s="145">
+        <v>0</v>
+      </c>
+      <c r="I7" s="145">
+        <v>0</v>
+      </c>
+      <c r="J7" s="145">
+        <v>0</v>
+      </c>
+      <c r="K7" s="145">
+        <v>0</v>
+      </c>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="149">
+        <v>2</v>
+      </c>
+      <c r="X7" s="149">
+        <f>SUMPRODUCT(D7:V7,$D$12:$V$12)</f>
+        <v>104</v>
+      </c>
+      <c r="Y7" s="19">
+        <f>W7*100/$W$4</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Z7" s="19">
+        <f>X7*100/$X$4</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="143">
+        <v>450</v>
+      </c>
+      <c r="D8" s="150">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>3</v>
+      </c>
+      <c r="I8" s="25">
+        <v>2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="151">
+        <v>3</v>
+      </c>
+      <c r="X8" s="151">
+        <f t="shared" ref="X8:X9" si="0">SUMPRODUCT(D8:V8,$D$12:$V$12)</f>
+        <v>156</v>
+      </c>
+      <c r="Y8" s="19">
+        <f t="shared" ref="Y8:Y9" si="1">W8*100/$W$4</f>
+        <v>50</v>
+      </c>
+      <c r="Z8" s="19">
+        <f>X8*100/$X$4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="142">
+        <v>340</v>
+      </c>
+      <c r="D9" s="152">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>2</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>2</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3</v>
+      </c>
+      <c r="K9" s="37">
+        <v>4</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="153">
+        <v>1</v>
+      </c>
+      <c r="X9" s="153">
+        <f>SUMPRODUCT(D9:V9,$D$12:$V$12)</f>
+        <v>52</v>
+      </c>
+      <c r="Y9" s="19">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Z9" s="19">
+        <f t="shared" ref="Z9:Z10" si="2">X9*100/$X$4</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="156" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="157"/>
+      <c r="D10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,D7:D9))</f>
+        <v>60</v>
+      </c>
+      <c r="E10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,E7:E9))</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,F7:F9))</f>
+        <v>210</v>
+      </c>
+      <c r="G10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,G7:G9))</f>
+        <v>320</v>
+      </c>
+      <c r="H10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,H7:H9))</f>
+        <v>250</v>
+      </c>
+      <c r="I10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,I7:I9))</f>
+        <v>20</v>
+      </c>
+      <c r="J10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,J7:J9))</f>
+        <v>130</v>
+      </c>
+      <c r="K10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,K7:K9))</f>
+        <v>240</v>
+      </c>
+      <c r="L10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,L7:L9))</f>
+        <v>1600</v>
+      </c>
+      <c r="M10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,M7:M9))</f>
+        <v>1600</v>
+      </c>
+      <c r="N10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,N7:N9))</f>
+        <v>1600</v>
+      </c>
+      <c r="O10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,O7:O9))</f>
+        <v>1600</v>
+      </c>
+      <c r="P10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,P7:P9))</f>
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,Q7:Q9))</f>
+        <v>1600</v>
+      </c>
+      <c r="R10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,R7:R9))</f>
+        <v>1600</v>
+      </c>
+      <c r="S10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,S7:S9))</f>
+        <v>1600</v>
+      </c>
+      <c r="T10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,T7:T9))</f>
+        <v>1600</v>
+      </c>
+      <c r="U10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,U7:U9))</f>
+        <v>1600</v>
+      </c>
+      <c r="V10" s="154">
+        <f>$C$2-(SUMPRODUCT($C$7:$C$9,V7:V9))</f>
+        <v>1600</v>
+      </c>
+      <c r="W10" s="155"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="19">
+        <f>SUM(Y7:Y9)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="Z10" s="19">
+        <f>SUM(Z7:Z9)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="159"/>
+      <c r="D11" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="145" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="145" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" s="145" t="s">
+        <v>241</v>
+      </c>
+      <c r="N11" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="O11" s="145" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" s="145" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q11" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="R11" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="S11" s="145" t="s">
+        <v>247</v>
+      </c>
+      <c r="T11" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="U11" s="145" t="s">
+        <v>249</v>
+      </c>
+      <c r="V11" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="W11" s="149"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="160"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="165">
+        <v>20</v>
+      </c>
+      <c r="E12" s="166">
+        <v>64</v>
+      </c>
+      <c r="F12" s="166">
+        <v>0</v>
+      </c>
+      <c r="G12" s="166">
+        <v>0</v>
+      </c>
+      <c r="H12" s="166">
+        <v>0</v>
+      </c>
+      <c r="I12" s="166">
+        <v>13</v>
+      </c>
+      <c r="J12" s="166">
+        <v>2</v>
+      </c>
+      <c r="K12" s="166">
+        <v>0</v>
+      </c>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="84">
+        <f>SUMPRODUCT(D10:V10*D12:V12)</f>
+        <v>8120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="85">
+        <f>C15/(C2*C3)</f>
+        <v>5.126262626262626E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="25">
+        <f>X9</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="123">
+        <f>SUM(D12:V12)</f>
+        <v>99</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="124">
+        <f>C3</f>
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="129">
+        <f>W8*X7</f>
+        <v>312</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="130">
+        <f>W7*X8</f>
+        <v>312</v>
+      </c>
+      <c r="E21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="125">
+        <f>W9*X8</f>
+        <v>156</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="126">
+        <f>W8*X9</f>
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:V5"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="142" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
